--- a/sizing calculator 2t.xlsx
+++ b/sizing calculator 2t.xlsx
@@ -5,27 +5,23 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC5540-2143-41D3-B703-D439FEFE9CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96CB83E-D98B-4DBD-9827-B6F98A4647F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sizing and Cost Calcs" sheetId="1" r:id="rId1"/>
+    <sheet name="Transfer Vehicle Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sizing Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Pairwise Comparison" sheetId="4" r:id="rId4"/>
+    <sheet name="Trade off Results" sheetId="5" r:id="rId5"/>
+    <sheet name="Launcher Database" sheetId="6" r:id="rId6"/>
+    <sheet name="Lander SS DB" sheetId="8" r:id="rId7"/>
+    <sheet name="Subsystem Sizing" sheetId="7" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -560,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="388">
   <si>
     <t>TV design ref</t>
   </si>
@@ -1543,36 +1539,6 @@
   </si>
   <si>
     <t>is thisan exponential relation?</t>
-  </si>
-  <si>
-    <t>Merlin 1D rocket engine,</t>
-  </si>
-  <si>
-    <t>RD-0750 rocket engine</t>
-  </si>
-  <si>
-    <t>F-1</t>
-  </si>
-  <si>
-    <t>RD-170 rocket engine</t>
-  </si>
-  <si>
-    <t>NK-33 rocket engine[29]</t>
-  </si>
-  <si>
-    <t>SpaceX Raptor 2 rocket engine[30]</t>
-  </si>
-  <si>
-    <t>Rocketdyne RS-25 rocket engine</t>
-  </si>
-  <si>
-    <t>RD-180 rocket engine[27]</t>
-  </si>
-  <si>
-    <t>kN</t>
-  </si>
-  <si>
-    <t>kg</t>
   </si>
   <si>
     <t>I don’t think so. See sheet 9</t>
@@ -2723,39 +2689,6 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,9 +2750,6 @@
     <xf numFmtId="165" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2838,16 +2768,52 @@
     <xf numFmtId="4" fontId="5" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2952,7 +2918,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$C$30:$C$34</c:f>
+              <c:f>'Trade off Results'!$C$30:$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2985,7 +2951,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet5!$C$41:$C$45</c:f>
+              <c:f>'Trade off Results'!$C$41:$C$45</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3008,7 +2974,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$J$41:$J$45</c:f>
+              <c:f>'Trade off Results'!$J$41:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3399,7 +3365,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet7!$C$39:$D$39,Sheet7!$G$39:$M$39)</c:f>
+              <c:f>('Lander SS DB'!$C$39:$D$39,'Lander SS DB'!$G$39:$M$39)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3435,7 +3401,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet7!$C$33:$D$33,Sheet7!$G$33:$M$33)</c:f>
+              <c:f>('Lander SS DB'!$C$33:$D$33,'Lander SS DB'!$G$33:$M$33)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3863,7 +3829,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet7!$B$37</c:f>
+              <c:f>'Lander SS DB'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3947,7 +3913,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet7!$C$39:$D$39,Sheet7!$H$39:$M$39)</c:f>
+              <c:f>('Lander SS DB'!$C$39:$D$39,'Lander SS DB'!$H$39:$M$39)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3980,7 +3946,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet7!$C$37:$D$37,Sheet7!$H$37:$M$37)</c:f>
+              <c:f>('Lander SS DB'!$C$37:$D$37,'Lander SS DB'!$H$37:$M$37)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4402,7 +4368,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$G$41:$G$46</c:f>
+              <c:f>'Subsystem Sizing'!$G$41:$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4624,7 +4590,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet8!$G$41:$G$46</c:f>
+              <c:f>'Subsystem Sizing'!$G$41:$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4650,7 +4616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$I$41:$I$46</c:f>
+              <c:f>'Subsystem Sizing'!$I$41:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4738,1052 +4704,6 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>thrust and weight</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="1"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10580139982502187"/>
-                  <c:y val="-0.22266951006124233"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet9!$H$12:$H$19</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4621</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3177</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5393</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8391</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9750</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet9!$I$12:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1413</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1638</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2278</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4152</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7740</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3927-44A6-A06A-1FF4B4E83445}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="563678432"/>
-        <c:axId val="563672856"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="563678432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>engine mass</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> [kg</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563672856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="563672856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Thrust [kN]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563678432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>thrust t</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>o </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>weight</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>thrust and weight</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12942760279965004"/>
-                  <c:y val="-0.54086723534558179"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet9!$H$12:$H$19</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4621</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3177</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5393</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8391</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9750</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet9!$J$12:$J$19</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1957.1734475374733</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305.77797013633415</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1340.4255319148936</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1410</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>717.0286433742524</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>769.88689041349903</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>922.41687522345364</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>808.92307692307691</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1B7-4BAF-98A9-7D7A98980950}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="563678432"/>
-        <c:axId val="563672856"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="563678432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>engine mass</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> [kg</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563672856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="563672856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Thrust:Weight [kN]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563678432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6048,7 +4968,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet7!$B$4:$B$12</c:f>
+              <c:f>'Lander SS DB'!$B$4:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -6083,7 +5003,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet7!$N$4:$N$12</c:f>
+              <c:f>'Lander SS DB'!$N$4:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6562,7 +5482,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet7!$B$33:$B$38</c:f>
+              <c:f>'Lander SS DB'!$B$33:$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6588,7 +5508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet7!$N$33:$N$38</c:f>
+              <c:f>'Lander SS DB'!$N$33:$N$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6854,7 +5774,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$C$39:$M$39</c:f>
+              <c:f>'Lander SS DB'!$C$39:$M$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6896,7 +5816,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet7!$C$33:$M$33</c:f>
+              <c:f>'Lander SS DB'!$C$33:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7393,7 +6313,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$C$39:$M$39</c:f>
+              <c:f>'Lander SS DB'!$C$39:$M$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7435,7 +6355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet7!$C$34:$M$34</c:f>
+              <c:f>'Lander SS DB'!$C$34:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7960,7 +6880,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$H$39:$M$39</c:f>
+              <c:f>'Lander SS DB'!$H$39:$M$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7987,7 +6907,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet7!$H$35:$M$35</c:f>
+              <c:f>'Lander SS DB'!$H$35:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -8406,7 +7326,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet7!$B$36</c:f>
+              <c:f>'Lander SS DB'!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8489,7 +7409,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$C$39:$M$39</c:f>
+              <c:f>'Lander SS DB'!$C$39:$M$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8531,7 +7451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet7!$C$36:$M$36</c:f>
+              <c:f>'Lander SS DB'!$C$36:$M$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8965,7 +7885,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet7!$B$37</c:f>
+              <c:f>'Lander SS DB'!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9049,7 +7969,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$C$39:$M$39</c:f>
+              <c:f>'Lander SS DB'!$C$39:$M$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9091,7 +8011,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet7!$C$37:$M$37</c:f>
+              <c:f>'Lander SS DB'!$C$37:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9588,7 +8508,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet7!$C$39:$D$39,Sheet7!$G$39:$M$39)</c:f>
+              <c:f>('Lander SS DB'!$C$39:$D$39,'Lander SS DB'!$G$39:$M$39)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -9624,7 +8544,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet7!$C$34:$D$34,Sheet7!$G$34:$M$34)</c:f>
+              <c:f>('Lander SS DB'!$C$34:$D$34,'Lander SS DB'!$G$34:$M$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -10137,86 +9057,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12574,1038 +11414,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -18224,150 +16032,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF868397-CE31-01E9-C62E-D74BD7ABE2B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058D9563-4B0F-4B31-924F-E212391B263A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="15">
-          <cell r="E15" t="str">
-            <v>Falcon Heavy</v>
-          </cell>
-          <cell r="H15">
-            <v>2351.0971786833857</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16" t="str">
-            <v>Falcon 9 FT</v>
-          </cell>
-          <cell r="H16">
-            <v>2938.5964912280701</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17" t="str">
-            <v>Atlas V 551</v>
-          </cell>
-          <cell r="H17">
-            <v>3876.5864797408531</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18" t="str">
-            <v>Ariane 6 A64</v>
-          </cell>
-          <cell r="H18">
-            <v>5311.778290993072</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19" t="str">
-            <v>SLS B1</v>
-          </cell>
-          <cell r="H19">
-            <v>21052.63157894737</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18705,36 +16369,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="175" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="J1" s="146" t="s">
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="J1" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="Q1" s="146" t="s">
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="Q1" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="W1" s="146" t="s">
+      <c r="R1" s="179"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="179"/>
+      <c r="W1" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AC1" s="148" t="s">
+      <c r="X1" s="179"/>
+      <c r="Y1" s="179"/>
+      <c r="Z1" s="179"/>
+      <c r="AC1" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="150"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="178"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -18910,7 +16574,7 @@
         <v>181</v>
       </c>
       <c r="Y5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Z5">
         <v>8200</v>
@@ -18951,7 +16615,7 @@
         <v>182</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="T6" s="17">
         <v>17700</v>
@@ -18960,7 +16624,7 @@
         <v>182</v>
       </c>
       <c r="Y6" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Z6">
         <v>8200</v>
@@ -19045,7 +16709,7 @@
       </c>
       <c r="L8" s="45"/>
       <c r="M8" s="41">
-        <f>Sheet2!J6*0.7</f>
+        <f>'Transfer Vehicle Data'!J6*0.7</f>
         <v>67867984406.10434</v>
       </c>
       <c r="Q8" s="23"/>
@@ -19280,7 +16944,7 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="17">
-        <f>Sheet2!F6</f>
+        <f>'Transfer Vehicle Data'!F6</f>
         <v>451</v>
       </c>
       <c r="O13" s="3">
@@ -19426,7 +17090,7 @@
         <v>86</v>
       </c>
       <c r="Y16" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="Z16" s="17">
         <f>Z12</f>
@@ -19788,30 +17452,30 @@
       </c>
     </row>
     <row r="34" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="147" t="s">
+      <c r="D34" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="J34" s="147" t="s">
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="J34" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
-      <c r="W34" s="147" t="s">
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="W34" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="X34" s="147"/>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="147"/>
-      <c r="AC34" s="147" t="s">
+      <c r="X34" s="175"/>
+      <c r="Y34" s="175"/>
+      <c r="Z34" s="175"/>
+      <c r="AC34" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="AD34" s="147"/>
-      <c r="AE34" s="147"/>
-      <c r="AF34" s="147"/>
+      <c r="AD34" s="175"/>
+      <c r="AE34" s="175"/>
+      <c r="AF34" s="175"/>
     </row>
     <row r="35" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="s">
@@ -19838,12 +17502,12 @@
       <c r="M35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q35" s="146" t="s">
+      <c r="Q35" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="R35" s="146"/>
-      <c r="S35" s="146"/>
-      <c r="T35" s="146"/>
+      <c r="R35" s="179"/>
+      <c r="S35" s="179"/>
+      <c r="T35" s="179"/>
       <c r="W35" s="2" t="s">
         <v>115</v>
       </c>
@@ -21061,7 +18725,7 @@
         <v>214</v>
       </c>
       <c r="L66" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M66" s="18">
         <v>768793329</v>
@@ -21092,7 +18756,7 @@
         <v>Atlas V 551</v>
       </c>
       <c r="G67" s="18">
-        <f>Sheet6!F7</f>
+        <f>'Launcher Database'!F7</f>
         <v>3876.5864797408531</v>
       </c>
       <c r="J67" s="1"/>
@@ -21104,7 +18768,7 @@
         <v>Atlas V 551</v>
       </c>
       <c r="M67" s="18">
-        <f>Sheet6!F7</f>
+        <f>'Launcher Database'!F7</f>
         <v>3876.5864797408531</v>
       </c>
       <c r="Q67" s="1"/>
@@ -21116,7 +18780,7 @@
         <v>Atlas V 551</v>
       </c>
       <c r="T67" s="18">
-        <f>Sheet6!F7</f>
+        <f>'Launcher Database'!F7</f>
         <v>3876.5864797408531</v>
       </c>
       <c r="W67" s="1"/>
@@ -21128,7 +18792,7 @@
         <v>Anteres</v>
       </c>
       <c r="Z67" s="18">
-        <f>Sheet6!F13</f>
+        <f>'Launcher Database'!F13</f>
         <v>10365.853658536585</v>
       </c>
       <c r="AC67" s="1"/>
@@ -21155,7 +18819,7 @@
         <v>205</v>
       </c>
       <c r="L68" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M68" s="18">
         <f>M67*(M3+M11)*3</f>
@@ -21294,7 +18958,7 @@
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="W71" s="1"/>
@@ -21310,7 +18974,7 @@
         <v>Falcon Heavy</v>
       </c>
       <c r="G72" s="18">
-        <f>Sheet6!F6</f>
+        <f>'Launcher Database'!F6</f>
         <v>2351.0971786833857</v>
       </c>
       <c r="Q72" s="1"/>
@@ -21322,7 +18986,7 @@
         <v>Falcon 9</v>
       </c>
       <c r="T72" s="18">
-        <f>Sheet6!F9</f>
+        <f>'Launcher Database'!F9</f>
         <v>2938.5964912280701</v>
       </c>
       <c r="W72" s="1"/>
@@ -21334,7 +18998,7 @@
         <v>Anteres</v>
       </c>
       <c r="Z72" s="18">
-        <f>Sheet6!F13</f>
+        <f>'Launcher Database'!F13</f>
         <v>10365.853658536585</v>
       </c>
       <c r="AC72" s="1"/>
@@ -21367,7 +19031,7 @@
         <v>187</v>
       </c>
       <c r="M73" s="18">
-        <f>Sheet6!F7</f>
+        <f>'Launcher Database'!F7</f>
         <v>3876.5864797408531</v>
       </c>
       <c r="Q73" s="1"/>
@@ -21457,7 +19121,7 @@
         <v>135</v>
       </c>
       <c r="L75" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="M75" s="18">
         <f>M74+M70</f>
@@ -21490,7 +19154,7 @@
         <v>201</v>
       </c>
       <c r="F76" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G76" s="18">
         <f>(G69/60)+G74+G64 +(G75/180)</f>
@@ -21509,7 +19173,7 @@
         <v>201</v>
       </c>
       <c r="S76" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="T76" s="18">
         <f>T69/60+T74+T64</f>
@@ -21522,7 +19186,7 @@
         <v>201</v>
       </c>
       <c r="Y76" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Z76" s="18">
         <f>Z69/60+Z74+Z64</f>
@@ -21535,7 +19199,7 @@
         <v>201</v>
       </c>
       <c r="AE76" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AF76" s="18">
         <f>AF69/60+AF74+AF64</f>
@@ -21559,7 +19223,7 @@
         <v>201</v>
       </c>
       <c r="L77" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M77" s="18">
         <f>(M69+M64)/60+M75</f>
@@ -21608,7 +19272,7 @@
         <v>38054.173012329287</v>
       </c>
       <c r="N78" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="R78" s="47" t="s">
         <v>137</v>
@@ -21647,7 +19311,7 @@
     </row>
     <row r="81" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K81" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M81" s="18">
         <f>(M68+M63)/60+M75</f>
@@ -21668,16 +19332,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="W34:Z34"/>
     <mergeCell ref="AC34:AF34"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="W34:Z34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21691,7 +19355,7 @@
   <dimension ref="C2:K16"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21709,17 +19373,17 @@
   <sheetData>
     <row r="2" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="150"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="178"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -21876,16 +19540,16 @@
     </row>
     <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="148" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
+      <c r="C10" s="176" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
     </row>
     <row r="11" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
@@ -22042,7 +19706,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B4:M28"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -22060,28 +19724,28 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="146" t="s">
-        <v>382</v>
-      </c>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
+      <c r="D4" s="179" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="131" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E5" s="128" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F5" s="129" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G5" s="129" t="s">
         <v>12</v>
@@ -22106,11 +19770,11 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="154" t="s">
-        <v>376</v>
+      <c r="D6" s="183" t="s">
+        <v>366</v>
       </c>
       <c r="E6" s="130" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F6" s="130" t="s">
         <v>36</v>
@@ -22125,9 +19789,9 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
-      <c r="D7" s="155"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="125" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F7" s="125" t="s">
         <v>36</v>
@@ -22142,31 +19806,31 @@
     </row>
     <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
-      <c r="D8" s="156"/>
+      <c r="D8" s="185"/>
       <c r="E8" s="132" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G8" s="26">
-        <f>Sheet1!G13</f>
+        <f>'Sizing and Cost Calcs'!G13</f>
         <v>59338.434821279741</v>
       </c>
       <c r="H8" s="26">
-        <f>Sheet1!G8</f>
+        <f>'Sizing and Cost Calcs'!G8</f>
         <v>6022.2824450466724</v>
       </c>
       <c r="I8" s="26">
-        <f>Sheet1!G9</f>
+        <f>'Sizing and Cost Calcs'!G9</f>
         <v>2000</v>
       </c>
       <c r="J8" s="26">
-        <f>Sheet1!G12</f>
+        <f>'Sizing and Cost Calcs'!G12</f>
         <v>51316.152376233069</v>
       </c>
       <c r="K8" s="35">
-        <f>Sheet1!G10^2*(Sheet1!G8+Sheet1!G9)*0.5</f>
+        <f>'Sizing and Cost Calcs'!G10^2*('Sizing and Cost Calcs'!G8+'Sizing and Cost Calcs'!G9)*0.5</f>
         <v>329248911653.11652</v>
       </c>
       <c r="L8" s="25" t="s">
@@ -22177,14 +19841,14 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="151" t="s">
-        <v>377</v>
+      <c r="D9" s="180" t="s">
+        <v>367</v>
       </c>
       <c r="E9" s="125" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F9" s="125" t="str">
-        <f>Sheet1!L5</f>
+        <f>'Sizing and Cost Calcs'!L5</f>
         <v>Atlas V 551</v>
       </c>
       <c r="G9" s="121"/>
@@ -22196,12 +19860,12 @@
       <c r="M9" s="121"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="152"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="86" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F10" s="86" t="str">
-        <f>Sheet1!L6</f>
+        <f>'Sizing and Cost Calcs'!L6</f>
         <v>Atlas V 551</v>
       </c>
       <c r="G10" s="2"/>
@@ -22213,87 +19877,87 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="152"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="125" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G11" s="122">
-        <f>Sheet1!M15</f>
+        <f>'Sizing and Cost Calcs'!M15</f>
         <v>22189.083870922073</v>
       </c>
       <c r="H11" s="122">
-        <f>Sheet1!M11</f>
+        <f>'Sizing and Cost Calcs'!M11</f>
         <v>3490</v>
       </c>
       <c r="I11" s="122">
-        <f>Sheet1!M12</f>
+        <f>'Sizing and Cost Calcs'!M12</f>
         <v>5909.9978401806566</v>
       </c>
       <c r="J11" s="122">
-        <f>Sheet1!M14</f>
+        <f>'Sizing and Cost Calcs'!M14</f>
         <v>12789.086030741417</v>
       </c>
       <c r="K11" s="133">
-        <f>Sheet1!M8</f>
+        <f>'Sizing and Cost Calcs'!M8</f>
         <v>67867984406.10434</v>
       </c>
       <c r="L11" s="121" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="122">
-        <f>Sheet1!M13</f>
+        <f>'Sizing and Cost Calcs'!M13</f>
         <v>451</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
-      <c r="D12" s="153"/>
+      <c r="D12" s="182"/>
       <c r="E12" s="86" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="86" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G12" s="17">
-        <f>Sheet1!M22</f>
+        <f>'Sizing and Cost Calcs'!M22</f>
         <v>23213.637238994379</v>
       </c>
       <c r="H12" s="17">
-        <f>Sheet1!M17</f>
+        <f>'Sizing and Cost Calcs'!M17</f>
         <v>1962.710282723996</v>
       </c>
       <c r="I12" s="17">
-        <f>Sheet1!M17</f>
+        <f>'Sizing and Cost Calcs'!M17</f>
         <v>1962.710282723996</v>
       </c>
       <c r="J12" s="17">
-        <f>Sheet1!M20</f>
+        <f>'Sizing and Cost Calcs'!M20</f>
         <v>15340.929116089726</v>
       </c>
       <c r="K12" s="16">
-        <f>Sheet1!M21</f>
+        <f>'Sizing and Cost Calcs'!M21</f>
         <v>98408851536.308151</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M12" s="17">
-        <f>Sheet1!M19</f>
+        <f>'Sizing and Cost Calcs'!M19</f>
         <v>450</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="154" t="s">
-        <v>378</v>
+      <c r="D13" s="183" t="s">
+        <v>368</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F13" s="134" t="str">
-        <f>Sheet1!S5</f>
+        <f>'Sizing and Cost Calcs'!S5</f>
         <v>Atlas V 551</v>
       </c>
       <c r="G13" s="135"/>
@@ -22306,12 +19970,12 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
-      <c r="D14" s="155"/>
+      <c r="D14" s="184"/>
       <c r="E14" s="86" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F14" s="86" t="str">
-        <f>Sheet1!S6</f>
+        <f>'Sizing and Cost Calcs'!S6</f>
         <v>Falcon 9</v>
       </c>
       <c r="G14" s="2"/>
@@ -22324,123 +19988,123 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
-      <c r="D15" s="155"/>
+      <c r="D15" s="184"/>
       <c r="E15" s="125" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="125" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G15" s="122">
-        <f>Sheet1!T16</f>
+        <f>'Sizing and Cost Calcs'!T16</f>
         <v>25011.276391653988</v>
       </c>
       <c r="H15" s="122">
-        <f>Sheet1!T11</f>
+        <f>'Sizing and Cost Calcs'!T11</f>
         <v>4540</v>
       </c>
       <c r="I15" s="122">
-        <f>Sheet1!T13</f>
+        <f>'Sizing and Cost Calcs'!T13</f>
         <v>6055.5678670360103</v>
       </c>
       <c r="J15" s="122">
-        <f>Sheet1!T15</f>
+        <f>'Sizing and Cost Calcs'!T15</f>
         <v>14415.708524617978</v>
       </c>
       <c r="K15" s="133">
-        <f>Sheet1!T8</f>
+        <f>'Sizing and Cost Calcs'!T8</f>
         <v>76500000000</v>
       </c>
       <c r="L15" s="121" t="s">
         <v>48</v>
       </c>
       <c r="M15" s="122">
-        <f>Sheet1!T14</f>
+        <f>'Sizing and Cost Calcs'!T14</f>
         <v>348</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="155"/>
+      <c r="D16" s="184"/>
       <c r="E16" s="86" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F16" s="86" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G16" s="17">
-        <f>Sheet1!T26</f>
+        <f>'Sizing and Cost Calcs'!T26</f>
         <v>11934.401816553594</v>
       </c>
       <c r="H16" s="17">
-        <f>Sheet1!T24</f>
+        <f>'Sizing and Cost Calcs'!T24</f>
         <v>2140.2620589115086</v>
       </c>
       <c r="I16" s="17">
-        <f>Sheet1!T19</f>
+        <f>'Sizing and Cost Calcs'!T19</f>
         <v>6055.5678670360103</v>
       </c>
       <c r="J16" s="17">
-        <f>Sheet1!T25</f>
+        <f>'Sizing and Cost Calcs'!T25</f>
         <v>3738.5718906060756</v>
       </c>
       <c r="K16" s="16">
-        <f>Sheet1!T18</f>
+        <f>'Sizing and Cost Calcs'!T18</f>
         <v>6714023875.3362074</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="M16" s="2">
-        <f>Sheet1!T21</f>
+        <f>'Sizing and Cost Calcs'!T21</f>
         <v>348</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23"/>
-      <c r="D17" s="156"/>
+      <c r="D17" s="185"/>
       <c r="E17" s="136" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="136" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G17" s="138">
-        <f>Sheet1!T33</f>
+        <f>'Sizing and Cost Calcs'!T33</f>
         <v>18124.074637691196</v>
       </c>
       <c r="H17" s="138">
-        <f>Sheet1!T27</f>
+        <f>'Sizing and Cost Calcs'!T27</f>
         <v>6055.5678670360103</v>
       </c>
       <c r="I17" s="138">
-        <f>Sheet1!T28</f>
+        <f>'Sizing and Cost Calcs'!T28</f>
         <v>2011.0540886426591</v>
       </c>
       <c r="J17" s="138">
-        <f>Sheet1!T31</f>
+        <f>'Sizing and Cost Calcs'!T31</f>
         <v>10057.452682012527</v>
       </c>
       <c r="K17" s="139">
-        <f>Sheet1!T32</f>
+        <f>'Sizing and Cost Calcs'!T32</f>
         <v>58241010519.999992</v>
       </c>
       <c r="L17" s="137" t="s">
         <v>25</v>
       </c>
       <c r="M17" s="138">
-        <f>Sheet1!T29</f>
+        <f>'Sizing and Cost Calcs'!T29</f>
         <v>450</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="151" t="s">
-        <v>379</v>
+      <c r="D18" s="180" t="s">
+        <v>369</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="86" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -22452,81 +20116,81 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
-      <c r="D19" s="152"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="125" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="125" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G19" s="122">
-        <f>Sheet1!Z15</f>
+        <f>'Sizing and Cost Calcs'!Z15</f>
         <v>15210.324251434326</v>
       </c>
       <c r="H19" s="122">
-        <f>Sheet1!Z11</f>
+        <f>'Sizing and Cost Calcs'!Z11</f>
         <v>7230</v>
       </c>
       <c r="I19" s="122">
-        <f>Sheet1!Z12</f>
+        <f>'Sizing and Cost Calcs'!Z12</f>
         <v>6015.1523545706368</v>
       </c>
       <c r="J19" s="122">
-        <f>Sheet1!Z14</f>
+        <f>'Sizing and Cost Calcs'!Z14</f>
         <v>1965.1718968636887</v>
       </c>
       <c r="K19" s="133">
-        <f>Sheet1!Z8</f>
+        <f>'Sizing and Cost Calcs'!Z8</f>
         <v>95630000000</v>
       </c>
       <c r="L19" s="126" t="s">
         <v>89</v>
       </c>
       <c r="M19" s="122">
-        <f>Sheet1!Z13</f>
+        <f>'Sizing and Cost Calcs'!Z13</f>
         <v>2800</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="23"/>
-      <c r="D20" s="153"/>
+      <c r="D20" s="182"/>
       <c r="E20" s="86" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="86" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G20" s="17">
-        <f>Sheet1!Z21</f>
+        <f>'Sizing and Cost Calcs'!Z21</f>
         <v>23626.6693275166</v>
       </c>
       <c r="H20" s="17">
-        <f>Sheet1!Z16</f>
+        <f>'Sizing and Cost Calcs'!Z16</f>
         <v>6015.1523545706368</v>
       </c>
       <c r="I20" s="17">
-        <f>Sheet1!Z17</f>
+        <f>'Sizing and Cost Calcs'!Z17</f>
         <v>1997.6320969529086</v>
       </c>
       <c r="J20" s="17">
-        <f>Sheet1!Z20</f>
+        <f>'Sizing and Cost Calcs'!Z20</f>
         <v>15613.884875993055</v>
       </c>
       <c r="K20" s="16">
-        <f>Sheet1!Z22</f>
+        <f>'Sizing and Cost Calcs'!Z22</f>
         <v>100159805644.04433</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="17">
-        <f>Sheet1!Z18</f>
+        <f>'Sizing and Cost Calcs'!Z18</f>
         <v>450</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="154" t="s">
-        <v>380</v>
+      <c r="D21" s="183" t="s">
+        <v>370</v>
       </c>
       <c r="E21" s="134" t="s">
         <v>44</v>
@@ -22544,75 +20208,75 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
-      <c r="D22" s="155"/>
+      <c r="D22" s="184"/>
       <c r="E22" s="86" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="86" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G22" s="32">
-        <f>Sheet1!AF7</f>
+        <f>'Sizing and Cost Calcs'!AF7</f>
         <v>114570</v>
       </c>
       <c r="H22" s="32">
-        <f>Sheet1!AF5</f>
+        <f>'Sizing and Cost Calcs'!AF5</f>
         <v>3900</v>
       </c>
       <c r="I22" s="32">
-        <f>Sheet1!AF3</f>
+        <f>'Sizing and Cost Calcs'!AF3</f>
         <v>18000</v>
       </c>
       <c r="J22" s="32">
-        <f>Sheet1!AF6</f>
+        <f>'Sizing and Cost Calcs'!AF6</f>
         <v>92670</v>
       </c>
       <c r="K22" s="16">
-        <f>Sheet1!AF10</f>
+        <f>'Sizing and Cost Calcs'!AF10</f>
         <v>158118000000</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="M22" s="32">
-        <f>Sheet1!AF9</f>
+        <f>'Sizing and Cost Calcs'!AF9</f>
         <v>348</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23"/>
-      <c r="D23" s="156"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="136" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="136" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G23" s="140">
-        <f>Sheet1!AF11</f>
+        <f>'Sizing and Cost Calcs'!AF11</f>
         <v>18000</v>
       </c>
       <c r="H23" s="140">
-        <f>Sheet1!AF12</f>
+        <f>'Sizing and Cost Calcs'!AF12</f>
         <v>6021</v>
       </c>
       <c r="I23" s="140">
-        <f>Sheet1!AF13</f>
+        <f>'Sizing and Cost Calcs'!AF13</f>
         <v>1999.5741</v>
       </c>
       <c r="J23" s="140">
-        <f>Sheet1!AF16</f>
+        <f>'Sizing and Cost Calcs'!AF16</f>
         <v>7664.1236147577401</v>
       </c>
       <c r="K23" s="139">
-        <f>Sheet1!AF17</f>
+        <f>'Sizing and Cost Calcs'!AF17</f>
         <v>25064294062.5</v>
       </c>
       <c r="L23" s="137" t="s">
         <v>25</v>
       </c>
       <c r="M23" s="140">
-        <f>Sheet1!AF15</f>
+        <f>'Sizing and Cost Calcs'!AF15</f>
         <v>450</v>
       </c>
     </row>
@@ -22644,7 +20308,7 @@
   <dimension ref="C2:L10"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L10"/>
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22656,7 +20320,7 @@
     <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="127" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D3" s="127" t="s">
         <v>243</v>
@@ -22665,16 +20329,16 @@
         <v>244</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G3" s="127" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H3" s="127" t="s">
         <v>157</v>
       </c>
       <c r="I3" s="127" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="J3" s="127" t="s">
         <v>171</v>
@@ -22683,7 +20347,7 @@
         <v>172</v>
       </c>
       <c r="L3" s="127" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22752,7 +20416,7 @@
     </row>
     <row r="6" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="127" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D6" s="69">
         <v>0</v>
@@ -22784,7 +20448,7 @@
     </row>
     <row r="7" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="127" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D7" s="69">
         <v>0</v>
@@ -22848,7 +20512,7 @@
     </row>
     <row r="9" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="127" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="D9" s="69">
         <v>0</v>
@@ -22920,7 +20584,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C3:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -22985,30 +20649,30 @@
         <v>173</v>
       </c>
       <c r="D4" s="80">
-        <f>Sheet1!G77</f>
+        <f>'Sizing and Cost Calcs'!G77</f>
         <v>63020.276870871268</v>
       </c>
       <c r="E4" s="80">
-        <f>Sheet1!M82</f>
+        <f>'Sizing and Cost Calcs'!M82</f>
         <v>26341.123128016403</v>
       </c>
       <c r="F4" s="80">
-        <f>Sheet1!T77</f>
+        <f>'Sizing and Cost Calcs'!T77</f>
         <v>30451.353383285084</v>
       </c>
       <c r="G4" s="80">
-        <f>Sheet1!Z77</f>
+        <f>'Sizing and Cost Calcs'!Z77</f>
         <v>21858.947330950006</v>
       </c>
       <c r="H4" s="80">
-        <f>Sheet1!AF77</f>
+        <f>'Sizing and Cost Calcs'!AF77</f>
         <v>64449.438793705413</v>
       </c>
       <c r="K4" t="s">
         <v>173</v>
       </c>
       <c r="L4" s="29">
-        <f>Sheet4!L4</f>
+        <f>'Pairwise Comparison'!L4</f>
         <v>0.25</v>
       </c>
       <c r="M4" s="29">
@@ -23037,19 +20701,19 @@
         <v>178</v>
       </c>
       <c r="D5" s="80">
-        <f>Sheet1!G78</f>
+        <f>'Sizing and Cost Calcs'!G78</f>
         <v>63020.276870871268</v>
       </c>
       <c r="E5" s="80">
-        <f>Sheet1!M83</f>
+        <f>'Sizing and Cost Calcs'!M83</f>
         <v>26341.123128016403</v>
       </c>
       <c r="F5" s="80">
-        <f>Sheet1!T78</f>
+        <f>'Sizing and Cost Calcs'!T78</f>
         <v>30451.353383285084</v>
       </c>
       <c r="G5" s="80">
-        <f>Sheet1!Z78</f>
+        <f>'Sizing and Cost Calcs'!Z78</f>
         <v>21858.947330950006</v>
       </c>
       <c r="H5" s="80"/>
@@ -23057,7 +20721,7 @@
         <v>178</v>
       </c>
       <c r="L5" s="29">
-        <f>Sheet4!L5</f>
+        <f>'Pairwise Comparison'!L5</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="M5" s="29">
@@ -23085,30 +20749,30 @@
         <v>174</v>
       </c>
       <c r="D6" s="81">
-        <f>Sheet1!G41</f>
+        <f>'Sizing and Cost Calcs'!G41</f>
         <v>2000</v>
       </c>
       <c r="E6" s="81">
-        <f>Sheet1!M41</f>
+        <f>'Sizing and Cost Calcs'!M41</f>
         <v>1962.710282723996</v>
       </c>
       <c r="F6" s="81">
-        <f>Sheet1!T42</f>
+        <f>'Sizing and Cost Calcs'!T42</f>
         <v>2011.0540886426591</v>
       </c>
       <c r="G6" s="81">
-        <f>Sheet1!Z41</f>
+        <f>'Sizing and Cost Calcs'!Z41</f>
         <v>1997.6320969529086</v>
       </c>
       <c r="H6" s="81">
-        <f>Sheet1!AF41</f>
+        <f>'Sizing and Cost Calcs'!AF41</f>
         <v>1999.5741</v>
       </c>
       <c r="K6" t="s">
         <v>174</v>
       </c>
       <c r="L6" s="29">
-        <f>Sheet4!L6</f>
+        <f>'Pairwise Comparison'!L6</f>
         <v>0.17857142857142858</v>
       </c>
       <c r="M6" s="29">
@@ -23137,19 +20801,19 @@
         <v>175</v>
       </c>
       <c r="D7" s="81">
-        <f>Sheet1!G41</f>
+        <f>'Sizing and Cost Calcs'!G41</f>
         <v>2000</v>
       </c>
       <c r="E7" s="81">
-        <f>Sheet1!M41</f>
+        <f>'Sizing and Cost Calcs'!M41</f>
         <v>1962.710282723996</v>
       </c>
       <c r="F7" s="81">
-        <f>Sheet1!T42</f>
+        <f>'Sizing and Cost Calcs'!T42</f>
         <v>2011.0540886426591</v>
       </c>
       <c r="G7" s="81">
-        <f>Sheet1!Z41</f>
+        <f>'Sizing and Cost Calcs'!Z41</f>
         <v>1997.6320969529086</v>
       </c>
       <c r="H7" s="81">
@@ -23159,7 +20823,7 @@
         <v>175</v>
       </c>
       <c r="L7" s="29">
-        <f>Sheet4!L7</f>
+        <f>'Pairwise Comparison'!L7</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="M7" s="29">
@@ -23188,30 +20852,30 @@
         <v>176</v>
       </c>
       <c r="D8" s="79">
-        <f>Sheet1!G55</f>
+        <f>'Sizing and Cost Calcs'!G55</f>
         <v>5.1309993631191819</v>
       </c>
       <c r="E8" s="79">
-        <f>Sheet1!M55</f>
+        <f>'Sizing and Cost Calcs'!M55</f>
         <v>5.9014951699904996</v>
       </c>
       <c r="F8" s="79">
-        <f>Sheet1!T57</f>
+        <f>'Sizing and Cost Calcs'!T57</f>
         <v>6.1945277533397203</v>
       </c>
       <c r="G8" s="79">
-        <f>Sheet1!Z55</f>
+        <f>'Sizing and Cost Calcs'!Z55</f>
         <v>270.67500000000001</v>
       </c>
       <c r="H8" s="79">
-        <f>Sheet1!AF55</f>
+        <f>'Sizing and Cost Calcs'!AF55</f>
         <v>3.3066</v>
       </c>
       <c r="K8" t="s">
         <v>176</v>
       </c>
       <c r="L8" s="29">
-        <f>Sheet4!L8</f>
+        <f>'Pairwise Comparison'!L8</f>
         <v>0.10714285714285714</v>
       </c>
       <c r="M8" s="29">
@@ -23240,30 +20904,30 @@
         <v>177</v>
       </c>
       <c r="D9" s="3">
-        <f>Sheet1!G49</f>
+        <f>'Sizing and Cost Calcs'!G49</f>
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <f>Sheet1!M49</f>
+        <f>'Sizing and Cost Calcs'!M49</f>
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <f>Sheet1!T50</f>
+        <f>'Sizing and Cost Calcs'!T50</f>
         <v>11</v>
       </c>
       <c r="G9" s="3">
-        <f>Sheet1!Z49</f>
+        <f>'Sizing and Cost Calcs'!Z49</f>
         <v>8</v>
       </c>
       <c r="H9" s="3">
-        <f>Sheet1!AF49</f>
+        <f>'Sizing and Cost Calcs'!AF49</f>
         <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>177</v>
       </c>
       <c r="L9" s="29">
-        <f>Sheet4!L9</f>
+        <f>'Pairwise Comparison'!L9</f>
         <v>0.10714285714285714</v>
       </c>
       <c r="M9" s="29">
@@ -23694,15 +21358,15 @@
       </c>
     </row>
     <row r="28" spans="3:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="185" t="s">
-        <v>392</v>
-      </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="186"/>
+      <c r="C28" s="186" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="188"/>
       <c r="K28" t="s">
         <v>40</v>
       </c>
@@ -23730,26 +21394,26 @@
       </c>
     </row>
     <row r="29" spans="3:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="179" t="s">
-        <v>383</v>
-      </c>
-      <c r="D29" s="180" t="s">
-        <v>384</v>
-      </c>
-      <c r="E29" s="180" t="s">
-        <v>389</v>
-      </c>
-      <c r="F29" s="180" t="s">
-        <v>385</v>
-      </c>
-      <c r="G29" s="180" t="s">
-        <v>386</v>
-      </c>
-      <c r="H29" s="180" t="s">
-        <v>387</v>
-      </c>
-      <c r="I29" s="180" t="s">
-        <v>388</v>
+      <c r="C29" s="167" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" s="168" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" s="168" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" s="168" t="s">
+        <v>375</v>
+      </c>
+      <c r="G29" s="168" t="s">
+        <v>376</v>
+      </c>
+      <c r="H29" s="168" t="s">
+        <v>377</v>
+      </c>
+      <c r="I29" s="168" t="s">
+        <v>378</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -23778,25 +21442,25 @@
       </c>
     </row>
     <row r="30" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="181" t="s">
+      <c r="C30" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="182">
+      <c r="D30" s="170">
         <v>63020.276870871268</v>
       </c>
-      <c r="E30" s="182">
+      <c r="E30" s="170">
         <v>63020.276870871268</v>
       </c>
-      <c r="F30" s="182">
+      <c r="F30" s="170">
         <v>2000</v>
       </c>
-      <c r="G30" s="182">
+      <c r="G30" s="170">
         <v>2000</v>
       </c>
-      <c r="H30" s="182">
+      <c r="H30" s="170">
         <v>5.1309993631191819</v>
       </c>
-      <c r="I30" s="181">
+      <c r="I30" s="169">
         <v>3</v>
       </c>
       <c r="K30" t="s">
@@ -23826,25 +21490,25 @@
       </c>
     </row>
     <row r="31" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="183" t="s">
+      <c r="C31" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="184">
+      <c r="D31" s="172">
         <v>26341.123128016403</v>
       </c>
-      <c r="E31" s="184">
+      <c r="E31" s="172">
         <v>26341.123128016403</v>
       </c>
-      <c r="F31" s="184">
+      <c r="F31" s="172">
         <v>1962.710282723996</v>
       </c>
-      <c r="G31" s="184">
+      <c r="G31" s="172">
         <v>1962.710282723996</v>
       </c>
-      <c r="H31" s="184">
+      <c r="H31" s="172">
         <v>5.9014951699904996</v>
       </c>
-      <c r="I31" s="183">
+      <c r="I31" s="171">
         <v>8</v>
       </c>
       <c r="K31" t="s">
@@ -23874,25 +21538,25 @@
       </c>
     </row>
     <row r="32" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="181" t="s">
+      <c r="C32" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="182">
+      <c r="D32" s="170">
         <v>39804.95731583958</v>
       </c>
-      <c r="E32" s="182">
+      <c r="E32" s="170">
         <v>39804.95731583958</v>
       </c>
-      <c r="F32" s="182">
+      <c r="F32" s="170">
         <v>1005.5270443213295</v>
       </c>
-      <c r="G32" s="182">
+      <c r="G32" s="170">
         <v>1005.5270443213295</v>
       </c>
-      <c r="H32" s="182">
+      <c r="H32" s="170">
         <v>6.1945277533397203</v>
       </c>
-      <c r="I32" s="181">
+      <c r="I32" s="169">
         <v>11</v>
       </c>
       <c r="K32" t="s">
@@ -23922,84 +21586,84 @@
       </c>
     </row>
     <row r="33" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="183" t="s">
+      <c r="C33" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="184">
+      <c r="D33" s="172">
         <v>10512.349220740251</v>
       </c>
-      <c r="E33" s="184">
+      <c r="E33" s="172">
         <v>10512.349220740251</v>
       </c>
-      <c r="F33" s="184">
+      <c r="F33" s="172">
         <v>1997.6320969529086</v>
       </c>
-      <c r="G33" s="184">
+      <c r="G33" s="172">
         <v>1997.6320969529086</v>
       </c>
-      <c r="H33" s="184">
+      <c r="H33" s="172">
         <v>270.67500000000001</v>
       </c>
-      <c r="I33" s="183">
+      <c r="I33" s="171">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="187" t="s">
+      <c r="C34" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="188">
+      <c r="D34" s="174">
         <v>64449.438793705413</v>
       </c>
-      <c r="E34" s="188" t="s">
+      <c r="E34" s="174" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="188">
+      <c r="F34" s="174">
         <v>1999.5741</v>
       </c>
-      <c r="G34" s="188" t="s">
+      <c r="G34" s="174" t="s">
         <v>240</v>
       </c>
-      <c r="H34" s="188">
+      <c r="H34" s="174">
         <v>3.3066</v>
       </c>
-      <c r="I34" s="187">
+      <c r="I34" s="173">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="147" t="s">
-        <v>390</v>
-      </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
+      <c r="C38" s="175" t="s">
+        <v>380</v>
+      </c>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
     </row>
     <row r="39" spans="3:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="141" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D39" s="142" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E39" s="142" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F39" s="142" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G39" s="142" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H39" s="142" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="I39" s="142" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="J39" s="143" t="s">
         <v>242</v>
@@ -24034,7 +21698,7 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D41" s="29">
         <v>0.55437330005646501</v>
@@ -24061,7 +21725,7 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="121" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D42" s="145">
         <v>14.782252715833941</v>
@@ -24088,7 +21752,7 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D43" s="29">
         <v>13.187890401669728</v>
@@ -24115,7 +21779,7 @@
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="121" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D44" s="145">
         <v>16.520893067464186</v>
@@ -24142,7 +21806,7 @@
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D45" s="29">
         <v>0</v>
@@ -24230,13 +21894,13 @@
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="175" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
       <c r="K4" s="2" t="s">
         <v>227</v>
       </c>
@@ -24391,12 +22055,12 @@
         <v>24090.909090909092</v>
       </c>
       <c r="G12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="121" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D13" s="122">
         <v>85000000</v>
@@ -24409,7 +22073,7 @@
         <v>10365.853658536585</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -24430,7 +22094,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:AE92"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="X23" sqref="X23:X33"/>
     </sheetView>
   </sheetViews>
@@ -24954,294 +22618,294 @@
     </row>
     <row r="20" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X21" s="148" t="s">
+      <c r="X21" s="176" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="178"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="X22" s="146" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y22" s="154" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z22" s="155" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA22" s="156" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB22" s="156" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC22" s="156" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD22" s="157" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE22" s="147" t="s">
         <v>344</v>
       </c>
-      <c r="Y21" s="149"/>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="149"/>
-      <c r="AB21" s="149"/>
-      <c r="AC21" s="149"/>
-      <c r="AD21" s="149"/>
-      <c r="AE21" s="150"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X22" s="157" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y22" s="165" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z22" s="166" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA22" s="167" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB22" s="167" t="s">
-        <v>351</v>
-      </c>
-      <c r="AC22" s="167" t="s">
-        <v>352</v>
-      </c>
-      <c r="AD22" s="168" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE22" s="158" t="s">
-        <v>354</v>
-      </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X23" s="159" t="s">
+      <c r="X23" s="148" t="s">
         <v>304</v>
       </c>
-      <c r="Y23" s="169">
+      <c r="Y23" s="158">
         <f t="shared" ref="Y23:Y33" si="2">SUM(Z23:AE23)</f>
         <v>2027</v>
       </c>
-      <c r="Z23" s="170">
+      <c r="Z23" s="159">
         <v>460</v>
       </c>
-      <c r="AA23" s="170">
+      <c r="AA23" s="159">
         <v>495</v>
       </c>
-      <c r="AB23" s="170">
+      <c r="AB23" s="159">
         <v>366</v>
       </c>
-      <c r="AC23" s="170">
+      <c r="AC23" s="159">
         <v>29</v>
       </c>
-      <c r="AD23" s="171">
+      <c r="AD23" s="160">
         <f>210+194</f>
         <v>404</v>
       </c>
-      <c r="AE23" s="160">
+      <c r="AE23" s="149">
         <v>273</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X24" s="161" t="s">
+      <c r="X24" s="150" t="s">
         <v>302</v>
       </c>
-      <c r="Y24" s="172">
+      <c r="Y24" s="161">
         <f t="shared" si="2"/>
         <v>1200.7</v>
       </c>
-      <c r="Z24" s="173">
+      <c r="Z24" s="162">
         <f>404.8+28.8+99.3</f>
         <v>532.9</v>
       </c>
-      <c r="AA24" s="173">
+      <c r="AA24" s="162">
         <v>252.5</v>
       </c>
-      <c r="AB24" s="173">
+      <c r="AB24" s="162">
         <v>125.7</v>
       </c>
-      <c r="AC24" s="173">
+      <c r="AC24" s="162">
         <v>120.1</v>
       </c>
-      <c r="AD24" s="174">
+      <c r="AD24" s="163">
         <v>113.5</v>
       </c>
-      <c r="AE24" s="162">
+      <c r="AE24" s="151">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X25" s="159" t="s">
+      <c r="X25" s="148" t="s">
         <v>315</v>
       </c>
-      <c r="Y25" s="169">
+      <c r="Y25" s="158">
         <f t="shared" si="2"/>
         <v>9823</v>
       </c>
-      <c r="Z25" s="170">
+      <c r="Z25" s="159">
         <v>1681</v>
       </c>
-      <c r="AA25" s="170">
+      <c r="AA25" s="159">
         <v>4258</v>
       </c>
-      <c r="AB25" s="170">
+      <c r="AB25" s="159">
         <v>478</v>
       </c>
-      <c r="AC25" s="170">
+      <c r="AC25" s="159">
         <v>934</v>
       </c>
-      <c r="AD25" s="171">
+      <c r="AD25" s="160">
         <v>2017</v>
       </c>
-      <c r="AE25" s="160">
+      <c r="AE25" s="149">
         <v>455</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X26" s="161" t="s">
+      <c r="X26" s="150" t="s">
         <v>303</v>
       </c>
-      <c r="Y26" s="172">
+      <c r="Y26" s="161">
         <f t="shared" si="2"/>
         <v>9320</v>
       </c>
-      <c r="Z26" s="173">
+      <c r="Z26" s="162">
         <v>1770</v>
       </c>
-      <c r="AA26" s="173">
+      <c r="AA26" s="162">
         <v>4969</v>
       </c>
-      <c r="AB26" s="173">
+      <c r="AB26" s="162">
         <v>385</v>
       </c>
-      <c r="AC26" s="173">
+      <c r="AC26" s="162">
         <v>307</v>
       </c>
-      <c r="AD26" s="174">
+      <c r="AD26" s="163">
         <v>420</v>
       </c>
-      <c r="AE26" s="162">
+      <c r="AE26" s="151">
         <v>1469</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X27" s="159" t="s">
+      <c r="X27" s="148" t="s">
         <v>306</v>
       </c>
-      <c r="Y27" s="169">
+      <c r="Y27" s="158">
         <f t="shared" si="2"/>
         <v>5858</v>
       </c>
-      <c r="Z27" s="170">
+      <c r="Z27" s="159">
         <v>2822</v>
       </c>
-      <c r="AA27" s="170">
+      <c r="AA27" s="159">
         <v>1749</v>
       </c>
-      <c r="AB27" s="170">
+      <c r="AB27" s="159">
         <v>204</v>
       </c>
-      <c r="AC27" s="170">
+      <c r="AC27" s="159">
         <f>818+265</f>
         <v>1083</v>
       </c>
-      <c r="AD27" s="171">
+      <c r="AD27" s="160">
         <v>0</v>
       </c>
-      <c r="AE27" s="160">
+      <c r="AE27" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X28" s="161" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y28" s="172">
+      <c r="X28" s="150" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y28" s="161">
         <f t="shared" si="2"/>
         <v>3485.29</v>
       </c>
-      <c r="Z28" s="173">
+      <c r="Z28" s="162">
         <v>1186.3399999999999</v>
       </c>
-      <c r="AA28" s="173">
+      <c r="AA28" s="162">
         <v>918.21</v>
       </c>
-      <c r="AB28" s="173">
+      <c r="AB28" s="162">
         <v>663</v>
       </c>
-      <c r="AC28" s="173">
+      <c r="AC28" s="162">
         <v>258.7</v>
       </c>
-      <c r="AD28" s="174">
+      <c r="AD28" s="163">
         <v>459.04</v>
       </c>
-      <c r="AE28" s="162">
+      <c r="AE28" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X29" s="159" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y29" s="169">
+      <c r="X29" s="148" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y29" s="158">
         <f t="shared" si="2"/>
         <v>353.70000000000005</v>
       </c>
-      <c r="Z29" s="170">
+      <c r="Z29" s="159">
         <v>45</v>
       </c>
-      <c r="AA29" s="170">
+      <c r="AA29" s="159">
         <f>108+51.2+32.24</f>
         <v>191.44</v>
       </c>
-      <c r="AB29" s="170">
+      <c r="AB29" s="159">
         <f>8.18+33</f>
         <v>41.18</v>
       </c>
-      <c r="AC29" s="170">
+      <c r="AC29" s="159">
         <f>25+18.84+32.24</f>
         <v>76.080000000000013</v>
       </c>
-      <c r="AD29" s="171">
+      <c r="AD29" s="160">
         <v>0</v>
       </c>
-      <c r="AE29" s="160">
+      <c r="AE29" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X30" s="161" t="s">
+      <c r="X30" s="150" t="s">
         <v>308</v>
       </c>
-      <c r="Y30" s="172">
+      <c r="Y30" s="161">
         <f t="shared" si="2"/>
         <v>7542</v>
       </c>
-      <c r="Z30" s="173">
+      <c r="Z30" s="162">
         <v>2015</v>
       </c>
-      <c r="AA30" s="173">
+      <c r="AA30" s="162">
         <v>2425</v>
       </c>
-      <c r="AB30" s="173">
+      <c r="AB30" s="162">
         <v>553</v>
       </c>
-      <c r="AC30" s="173">
+      <c r="AC30" s="162">
         <v>594</v>
       </c>
-      <c r="AD30" s="174">
+      <c r="AD30" s="163">
         <f>295+777</f>
         <v>1072</v>
       </c>
-      <c r="AE30" s="162">
+      <c r="AE30" s="151">
         <v>883</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>344</v>
-      </c>
-      <c r="X31" s="159" t="s">
+        <v>334</v>
+      </c>
+      <c r="X31" s="148" t="s">
         <v>309</v>
       </c>
-      <c r="Y31" s="169">
+      <c r="Y31" s="158">
         <f t="shared" si="2"/>
         <v>7412</v>
       </c>
-      <c r="Z31" s="170">
+      <c r="Z31" s="159">
         <v>1985</v>
       </c>
-      <c r="AA31" s="170">
+      <c r="AA31" s="159">
         <v>2347</v>
       </c>
-      <c r="AB31" s="170">
+      <c r="AB31" s="159">
         <v>553</v>
       </c>
-      <c r="AC31" s="170">
+      <c r="AC31" s="159">
         <v>594</v>
       </c>
-      <c r="AD31" s="171">
+      <c r="AD31" s="160">
         <f>289+777</f>
         <v>1066</v>
       </c>
-      <c r="AE31" s="160">
+      <c r="AE31" s="149">
         <v>867</v>
       </c>
     </row>
@@ -25282,30 +22946,30 @@
       <c r="N32" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="X32" s="161" t="s">
+      <c r="X32" s="150" t="s">
         <v>310</v>
       </c>
-      <c r="Y32" s="172">
+      <c r="Y32" s="161">
         <f t="shared" si="2"/>
         <v>5970</v>
       </c>
-      <c r="Z32" s="173">
+      <c r="Z32" s="162">
         <v>1877</v>
       </c>
-      <c r="AA32" s="173">
+      <c r="AA32" s="162">
         <v>1125</v>
       </c>
-      <c r="AB32" s="173">
+      <c r="AB32" s="162">
         <v>553</v>
       </c>
-      <c r="AC32" s="173">
+      <c r="AC32" s="162">
         <v>594</v>
       </c>
-      <c r="AD32" s="174">
+      <c r="AD32" s="163">
         <f>272+777</f>
         <v>1049</v>
       </c>
-      <c r="AE32" s="162">
+      <c r="AE32" s="151">
         <v>772</v>
       </c>
     </row>
@@ -25351,30 +23015,30 @@
         <f>SUM(C33:M33)/SUM($C$39:$M$39)</f>
         <v>0.2756065027505068</v>
       </c>
-      <c r="X33" s="159" t="s">
+      <c r="X33" s="148" t="s">
         <v>311</v>
       </c>
-      <c r="Y33" s="169">
+      <c r="Y33" s="158">
         <f t="shared" si="2"/>
         <v>5912</v>
       </c>
-      <c r="Z33" s="170">
+      <c r="Z33" s="159">
         <v>1860</v>
       </c>
-      <c r="AA33" s="170">
+      <c r="AA33" s="159">
         <v>1095</v>
       </c>
-      <c r="AB33" s="170">
+      <c r="AB33" s="159">
         <v>553</v>
       </c>
-      <c r="AC33" s="170">
+      <c r="AC33" s="159">
         <v>594</v>
       </c>
-      <c r="AD33" s="171">
+      <c r="AD33" s="160">
         <f>269+777</f>
         <v>1046</v>
       </c>
-      <c r="AE33" s="160">
+      <c r="AE33" s="149">
         <v>764</v>
       </c>
     </row>
@@ -25420,34 +23084,34 @@
         <f t="shared" ref="N34:N38" si="3">SUM(C34:M34)/SUM($C$39:$M$39)</f>
         <v>0.33656889746635571</v>
       </c>
-      <c r="X34" s="163" t="s">
+      <c r="X34" s="152" t="s">
         <v>312</v>
       </c>
-      <c r="Y34" s="175">
+      <c r="Y34" s="164">
         <f t="shared" ref="Y34:AE34" si="4">SUM(Y23:Y33)/SUM($Y$23:$Y$33)</f>
         <v>1</v>
       </c>
-      <c r="Z34" s="176">
+      <c r="Z34" s="165">
         <f t="shared" si="4"/>
         <v>0.2756065027505068</v>
       </c>
-      <c r="AA34" s="176">
+      <c r="AA34" s="165">
         <f t="shared" si="4"/>
         <v>0.33656889746635571</v>
       </c>
-      <c r="AB34" s="176">
+      <c r="AB34" s="165">
         <f t="shared" si="4"/>
         <v>7.5969434172969447E-2</v>
       </c>
-      <c r="AC34" s="176">
+      <c r="AC34" s="165">
         <f t="shared" si="4"/>
         <v>8.8006031540638602E-2</v>
       </c>
-      <c r="AD34" s="177">
+      <c r="AD34" s="166">
         <f t="shared" si="4"/>
         <v>0.12981427818868393</v>
       </c>
-      <c r="AE34" s="164">
+      <c r="AE34" s="153">
         <f t="shared" si="4"/>
         <v>9.4034855880845494E-2</v>
       </c>
@@ -25695,7 +23359,7 @@
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
@@ -25721,7 +23385,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="C3:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="C29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
@@ -25745,7 +23409,7 @@
         <v>246</v>
       </c>
       <c r="G4" t="str" cm="1">
-        <f t="array" ref="G4:I10">Sheet1!K16:M22</f>
+        <f t="array" ref="G4:I10">'Sizing and Cost Calcs'!K16:M22</f>
         <v>mdry [kg]</v>
       </c>
       <c r="H4">
@@ -25766,7 +23430,7 @@
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" s="98" t="str" cm="1">
-        <f t="array" ref="C5:E10">Sheet1!E8:G13</f>
+        <f t="array" ref="C5:E10">'Sizing and Cost Calcs'!E8:G13</f>
         <v>mdry [kg]</v>
       </c>
       <c r="D5" s="59" t="str">
@@ -26110,7 +23774,7 @@
         <v>252</v>
       </c>
       <c r="H22" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I22" s="106">
         <f>I19/530.54</f>
@@ -26342,7 +24006,7 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G38" s="112" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H38" s="112"/>
       <c r="I38" s="118">
@@ -26388,7 +24052,7 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H43" s="32">
         <f>I38</f>
@@ -26445,158 +24109,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E69A6BC-067F-4A6E-A71C-735CF0C5B6D6}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="G11:J20"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="11" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>322</v>
-      </c>
-      <c r="H12" s="32">
-        <v>467</v>
-      </c>
-      <c r="I12" s="32">
-        <v>914</v>
-      </c>
-      <c r="J12" s="17">
-        <f>I12*1000/H12</f>
-        <v>1957.1734475374733</v>
-      </c>
-    </row>
-    <row r="13" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>323</v>
-      </c>
-      <c r="H13" s="32">
-        <v>4621</v>
-      </c>
-      <c r="I13" s="32">
-        <v>1413</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" ref="J13:J19" si="0">I13*1000/H13</f>
-        <v>305.77797013633415</v>
-      </c>
-    </row>
-    <row r="14" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>326</v>
-      </c>
-      <c r="H14" s="32">
-        <v>1222</v>
-      </c>
-      <c r="I14" s="32">
-        <v>1638</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="0"/>
-        <v>1340.4255319148936</v>
-      </c>
-    </row>
-    <row r="15" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>327</v>
-      </c>
-      <c r="H15" s="32">
-        <v>1600</v>
-      </c>
-      <c r="I15" s="32">
-        <v>2256</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" si="0"/>
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="16" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>328</v>
-      </c>
-      <c r="H16" s="32">
-        <v>3177</v>
-      </c>
-      <c r="I16" s="32">
-        <v>2278</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" si="0"/>
-        <v>717.0286433742524</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>329</v>
-      </c>
-      <c r="H17" s="32">
-        <v>5393</v>
-      </c>
-      <c r="I17" s="32">
-        <v>4152</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="0"/>
-        <v>769.88689041349903</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>324</v>
-      </c>
-      <c r="H18" s="32">
-        <v>8391</v>
-      </c>
-      <c r="I18" s="32">
-        <v>7740</v>
-      </c>
-      <c r="J18" s="17">
-        <f t="shared" si="0"/>
-        <v>922.41687522345364</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="32">
-        <v>9750</v>
-      </c>
-      <c r="I19" s="32">
-        <v>7887</v>
-      </c>
-      <c r="J19" s="17">
-        <f t="shared" si="0"/>
-        <v>808.92307692307691</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/sizing calculator 2t.xlsx
+++ b/sizing calculator 2t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96CB83E-D98B-4DBD-9827-B6F98A4647F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B38F44-A9C7-4C81-BDF8-3878CF5939CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
+    <workbookView xWindow="15015" yWindow="0" windowWidth="5475" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sizing and Cost Calcs" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Subsystem Sizing" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2774,6 +2775,9 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2784,9 +2788,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4302,7 +4303,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -4312,7 +4313,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1800">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -4322,6 +4323,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20290966754155729"/>
+          <c:y val="1.6867471479695615E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4335,7 +4344,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4355,10 +4364,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10967388451443572"/>
-          <c:y val="0.1300462962962963"/>
-          <c:w val="0.47509689413823269"/>
-          <c:h val="0.79182815689705455"/>
+          <c:x val="0.15339960629921259"/>
+          <c:y val="9.8393583631557757E-2"/>
+          <c:w val="0.70754833770778658"/>
+          <c:h val="0.71607308440752782"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -4548,7 +4557,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4672,10 +4681,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65903893263342073"/>
-          <c:y val="0.18113371245261009"/>
-          <c:w val="0.24025524934383202"/>
-          <c:h val="0.67997739865850115"/>
+          <c:x val="5.0705599300087487E-2"/>
+          <c:y val="0.82811225949314238"/>
+          <c:w val="0.94581080489938762"/>
+          <c:h val="0.17081672781356361"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4691,7 +4700,406 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Subsystem Breakdown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27790966754155733"/>
+          <c:y val="1.9678716726311551E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15339960629921259"/>
+          <c:y val="9.8393583631557757E-2"/>
+          <c:w val="0.70754833770778658"/>
+          <c:h val="0.71607308440752782"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Subsystem Sizing'!$G$41:$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Structure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Propulsion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thermal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Power</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Avionics</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2209-4559-BA01-A85739D544A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2209-4559-BA01-A85739D544A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2209-4559-BA01-A85739D544A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2209-4559-BA01-A85739D544A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2209-4559-BA01-A85739D544A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2209-4559-BA01-A85739D544A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Subsystem Sizing'!$G$41:$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Structure</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Propulsion</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Thermal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Power</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Avionics</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Subsystem Sizing'!$I$41:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.15479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1717826617826622E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16088217338217339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-2209-4559-BA01-A85739D544A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0705599300087487E-2"/>
+          <c:y val="0.82811225949314238"/>
+          <c:w val="0.94581080489938762"/>
+          <c:h val="0.17081672781356361"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9057,6 +9465,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10915,6 +11363,525 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15995,16 +16962,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1231447</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>29936</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1952624</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2782661</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>106136</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3326946</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16024,6 +16991,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76ACC6B3-054D-43FF-8F52-5DDC568D83F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16369,36 +17374,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="J1" s="179" t="s">
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="J1" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="Q1" s="179" t="s">
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="Q1" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="W1" s="179" t="s">
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="W1" s="175" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="179"/>
-      <c r="Y1" s="179"/>
-      <c r="Z1" s="179"/>
-      <c r="AC1" s="176" t="s">
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AC1" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-      <c r="AF1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="179"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -17452,30 +18457,30 @@
       </c>
     </row>
     <row r="34" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="J34" s="175" t="s">
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="J34" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="K34" s="175"/>
-      <c r="L34" s="175"/>
-      <c r="M34" s="175"/>
-      <c r="W34" s="175" t="s">
+      <c r="K34" s="176"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="176"/>
+      <c r="W34" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="X34" s="175"/>
-      <c r="Y34" s="175"/>
-      <c r="Z34" s="175"/>
-      <c r="AC34" s="175" t="s">
+      <c r="X34" s="176"/>
+      <c r="Y34" s="176"/>
+      <c r="Z34" s="176"/>
+      <c r="AC34" s="176" t="s">
         <v>127</v>
       </c>
-      <c r="AD34" s="175"/>
-      <c r="AE34" s="175"/>
-      <c r="AF34" s="175"/>
+      <c r="AD34" s="176"/>
+      <c r="AE34" s="176"/>
+      <c r="AF34" s="176"/>
     </row>
     <row r="35" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="s">
@@ -17502,12 +18507,12 @@
       <c r="M35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q35" s="179" t="s">
+      <c r="Q35" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="R35" s="179"/>
-      <c r="S35" s="179"/>
-      <c r="T35" s="179"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="175"/>
+      <c r="T35" s="175"/>
       <c r="W35" s="2" t="s">
         <v>115</v>
       </c>
@@ -19332,16 +20337,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="Q35:T35"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19373,17 +20378,17 @@
   <sheetData>
     <row r="2" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -19540,16 +20545,16 @@
     </row>
     <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="177" t="s">
         <v>381</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
     </row>
     <row r="11" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
@@ -19706,8 +20711,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B4:M28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19724,18 +20729,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="179" t="s">
+      <c r="D4" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="131" t="s">
@@ -20584,7 +21589,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C3:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -21632,16 +22637,16 @@
       </c>
     </row>
     <row r="38" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="175" t="s">
+      <c r="C38" s="176" t="s">
         <v>380</v>
       </c>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="175"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="176"/>
     </row>
     <row r="39" spans="3:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="141" t="s">
@@ -21894,13 +22899,13 @@
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="176" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
       <c r="K4" s="2" t="s">
         <v>227</v>
       </c>
@@ -22094,7 +23099,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:AE92"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="X23" sqref="X23:X33"/>
     </sheetView>
   </sheetViews>
@@ -22618,16 +23623,16 @@
     </row>
     <row r="20" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X21" s="176" t="s">
+      <c r="X21" s="177" t="s">
         <v>334</v>
       </c>
-      <c r="Y21" s="177"/>
-      <c r="Z21" s="177"/>
-      <c r="AA21" s="177"/>
-      <c r="AB21" s="177"/>
-      <c r="AC21" s="177"/>
-      <c r="AD21" s="177"/>
-      <c r="AE21" s="178"/>
+      <c r="Y21" s="178"/>
+      <c r="Z21" s="178"/>
+      <c r="AA21" s="178"/>
+      <c r="AB21" s="178"/>
+      <c r="AC21" s="178"/>
+      <c r="AD21" s="178"/>
+      <c r="AE21" s="179"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X22" s="146" t="s">
@@ -23385,8 +24390,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="C3:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="C29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sizing calculator 2t.xlsx
+++ b/sizing calculator 2t.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B38F44-A9C7-4C81-BDF8-3878CF5939CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF38E73-A7CC-4631-90AA-97C76FA192F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15015" yWindow="0" windowWidth="5475" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
+    <workbookView xWindow="3495" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{B3BF74C1-D929-4CA0-B8BF-5D4C53CAF467}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sizing and Cost Calcs" sheetId="1" r:id="rId1"/>
-    <sheet name="Transfer Vehicle Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sizing Results" sheetId="3" r:id="rId3"/>
-    <sheet name="Pairwise Comparison" sheetId="4" r:id="rId4"/>
-    <sheet name="Trade off Results" sheetId="5" r:id="rId5"/>
+    <sheet name="Transfer Vehicle Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Sizing Results" sheetId="3" r:id="rId2"/>
+    <sheet name="Sizing and Cost Calcs" sheetId="1" r:id="rId3"/>
+    <sheet name="Trade off Results" sheetId="5" r:id="rId4"/>
+    <sheet name="Pairwise Comparison" sheetId="4" r:id="rId5"/>
     <sheet name="Launcher Database" sheetId="6" r:id="rId6"/>
     <sheet name="Lander SS DB" sheetId="8" r:id="rId7"/>
     <sheet name="Subsystem Sizing" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -557,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="393">
   <si>
     <t>TV design ref</t>
   </si>
@@ -668,9 +667,6 @@
   </si>
   <si>
     <t>Falcon Heavy</t>
-  </si>
-  <si>
-    <t>contructor payload req</t>
   </si>
   <si>
     <t>Total TV mass</t>
@@ -756,9 +752,6 @@
   </si>
   <si>
     <t>MA4</t>
-  </si>
-  <si>
-    <t>regular launcher payload req</t>
   </si>
   <si>
     <t>LLO-surface-LLO</t>
@@ -1137,9 +1130,6 @@
     <t>sets the dry mass of the lander</t>
   </si>
   <si>
-    <t>Atlas V N22</t>
-  </si>
-  <si>
     <t>constructor launcher</t>
   </si>
   <si>
@@ -1728,9 +1718,6 @@
     <t>Upper Stages</t>
   </si>
   <si>
-    <t>Trade Off</t>
-  </si>
-  <si>
     <t>1-stage Transfer</t>
   </si>
   <si>
@@ -1744,6 +1731,33 @@
   </si>
   <si>
     <t>Old Fashioned Way</t>
+  </si>
+  <si>
+    <t>operational launch cost</t>
+  </si>
+  <si>
+    <t>FOMs normalised scores - 2t case</t>
+  </si>
+  <si>
+    <t>Cost_landed</t>
+  </si>
+  <si>
+    <t>Cost_lifted</t>
+  </si>
+  <si>
+    <t>Landed_Payload</t>
+  </si>
+  <si>
+    <t>Returned_payload</t>
+  </si>
+  <si>
+    <t>Delivery_Time</t>
+  </si>
+  <si>
+    <t>System_complexity</t>
+  </si>
+  <si>
+    <t>FOMs raw values - 2t</t>
   </si>
 </sst>
 </file>
@@ -2775,12 +2789,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2788,6 +2796,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2807,6 +2818,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2980,19 +2994,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50.823942135669071</c:v>
+                  <c:v>54.649400145880691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.869780144619867</c:v>
+                  <c:v>75.075367434314572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.182698877207763</c:v>
+                  <c:v>71.549952432787592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.701934945229723</c:v>
+                  <c:v>64.613144279350976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.078864752553187</c:v>
+                  <c:v>40.945015862960389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16539,15 +16553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1730090</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>6681</xdr:rowOff>
+      <xdr:colOff>1716483</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>101931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1731064</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>82881</xdr:rowOff>
+      <xdr:colOff>1717457</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>178131</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17333,12 +17347,965 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E23A57-50A6-4EC7-8215-D5086793F090}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="C2:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="177"/>
+    </row>
+    <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3490</v>
+      </c>
+      <c r="E5" s="8">
+        <v>27200</v>
+      </c>
+      <c r="F5" s="6">
+        <v>462</v>
+      </c>
+      <c r="G5" s="6">
+        <v>22977</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1910</v>
+      </c>
+      <c r="I5" s="82">
+        <f>F5*9.81*LN((G5+E5+D5)/(D5+G5))</f>
+        <v>3203.8245663562479</v>
+      </c>
+      <c r="J5" s="10">
+        <f>0.5*(G5+D5)*(I5^2)</f>
+        <v>135835152923.28055</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2462</v>
+      </c>
+      <c r="E6" s="12">
+        <v>20830</v>
+      </c>
+      <c r="F6" s="12">
+        <v>451</v>
+      </c>
+      <c r="G6" s="12">
+        <v>18850</v>
+      </c>
+      <c r="H6" s="13">
+        <v>3076</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" ref="I6:I8" si="0">F6*9.81*LN((G6+E6+D6)/(D6+G6))</f>
+        <v>3016.3820643287418</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" ref="J6:J8" si="1">0.5*(G6+D6)*(I6^2)</f>
+        <v>96954263437.291916</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3900</v>
+      </c>
+      <c r="E7" s="12">
+        <v>92670</v>
+      </c>
+      <c r="F7" s="12">
+        <v>348</v>
+      </c>
+      <c r="G7" s="12">
+        <v>15600</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5361</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
+        <v>5972.9282445330382</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="1"/>
+        <v>347839750189.82013</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4540</v>
+      </c>
+      <c r="E8" s="12">
+        <v>14700</v>
+      </c>
+      <c r="F8" s="12">
+        <v>446</v>
+      </c>
+      <c r="G8" s="12">
+        <v>10865</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2350</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>2931.4204323226427</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="1"/>
+        <v>66189321347.375343</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="175" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+    </row>
+    <row r="11" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3490</v>
+      </c>
+      <c r="E12" s="8">
+        <v>27200</v>
+      </c>
+      <c r="F12" s="6">
+        <v>462</v>
+      </c>
+      <c r="G12" s="6">
+        <v>22977</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1910</v>
+      </c>
+      <c r="I12" s="82">
+        <f>F12*9.81*LN((G12+E12+D12)/(D12+G12))</f>
+        <v>3203.8245663562479</v>
+      </c>
+      <c r="J12" s="10">
+        <f>0.5*(G12+D12)*(I12^2)</f>
+        <v>135835152923.28055</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2462</v>
+      </c>
+      <c r="E13" s="12">
+        <v>20830</v>
+      </c>
+      <c r="F13" s="12">
+        <v>451</v>
+      </c>
+      <c r="G13" s="12">
+        <v>18850</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3076</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" ref="I13:I15" si="2">F13*9.81*LN((G13+E13+D13)/(D13+G13))</f>
+        <v>3016.3820643287418</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" ref="J13:J15" si="3">0.5*(G13+D13)*(I13^2)</f>
+        <v>96954263437.291916</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3900</v>
+      </c>
+      <c r="E14" s="12">
+        <v>92670</v>
+      </c>
+      <c r="F14" s="12">
+        <v>348</v>
+      </c>
+      <c r="G14" s="12">
+        <v>15600</v>
+      </c>
+      <c r="H14" s="13">
+        <v>5361</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="2"/>
+        <v>5972.9282445330382</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="3"/>
+        <v>347839750189.82013</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12">
+        <v>4540</v>
+      </c>
+      <c r="E15" s="12">
+        <v>14700</v>
+      </c>
+      <c r="F15" s="12">
+        <v>446</v>
+      </c>
+      <c r="G15" s="12">
+        <v>10865</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2350</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="2"/>
+        <v>2931.4204323226427</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="3"/>
+        <v>66189321347.375343</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C10:J10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAA59C2-44B5-40C0-B117-24B7299CEE07}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B4:M28"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="178" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="131" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="129" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="129" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="182" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="130" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="125" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="132" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="132" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="26">
+        <f>'Sizing and Cost Calcs'!G13</f>
+        <v>59338.434821279741</v>
+      </c>
+      <c r="H8" s="26">
+        <f>'Sizing and Cost Calcs'!G8</f>
+        <v>6022.2824450466724</v>
+      </c>
+      <c r="I8" s="26">
+        <f>'Sizing and Cost Calcs'!G9</f>
+        <v>2000</v>
+      </c>
+      <c r="J8" s="26">
+        <f>'Sizing and Cost Calcs'!G12</f>
+        <v>51316.152376233069</v>
+      </c>
+      <c r="K8" s="35">
+        <f>'Sizing and Cost Calcs'!G10^2*('Sizing and Cost Calcs'!G8+'Sizing and Cost Calcs'!G9)*0.5</f>
+        <v>329248911653.11652</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="179" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="125" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="125" t="str">
+        <f>'Sizing and Cost Calcs'!L5</f>
+        <v>Atlas V 551</v>
+      </c>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="180"/>
+      <c r="E10" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="86" t="str">
+        <f>'Sizing and Cost Calcs'!L6</f>
+        <v>Falcon 9</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="180"/>
+      <c r="E11" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>360</v>
+      </c>
+      <c r="G11" s="122">
+        <f>'Sizing and Cost Calcs'!M15</f>
+        <v>22189.083870922073</v>
+      </c>
+      <c r="H11" s="122">
+        <f>'Sizing and Cost Calcs'!M11</f>
+        <v>3490</v>
+      </c>
+      <c r="I11" s="122">
+        <f>'Sizing and Cost Calcs'!M12</f>
+        <v>5909.9978401806566</v>
+      </c>
+      <c r="J11" s="122">
+        <f>'Sizing and Cost Calcs'!M14</f>
+        <v>12789.086030741417</v>
+      </c>
+      <c r="K11" s="133">
+        <f>'Sizing and Cost Calcs'!M8</f>
+        <v>67867984406.10434</v>
+      </c>
+      <c r="L11" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="122">
+        <f>'Sizing and Cost Calcs'!M13</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>361</v>
+      </c>
+      <c r="G12" s="17">
+        <f>'Sizing and Cost Calcs'!M22</f>
+        <v>23213.637238994379</v>
+      </c>
+      <c r="H12" s="17">
+        <f>'Sizing and Cost Calcs'!M17</f>
+        <v>1962.710282723996</v>
+      </c>
+      <c r="I12" s="17">
+        <f>'Sizing and Cost Calcs'!M17</f>
+        <v>1962.710282723996</v>
+      </c>
+      <c r="J12" s="17">
+        <f>'Sizing and Cost Calcs'!M20</f>
+        <v>15340.929116089726</v>
+      </c>
+      <c r="K12" s="16">
+        <f>'Sizing and Cost Calcs'!M21</f>
+        <v>98408851536.308151</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="17">
+        <f>'Sizing and Cost Calcs'!M19</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="182" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="134" t="str">
+        <f>'Sizing and Cost Calcs'!S5</f>
+        <v>Atlas V 551</v>
+      </c>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="86" t="str">
+        <f>'Sizing and Cost Calcs'!S6</f>
+        <v>Falcon 9</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="125" t="s">
+        <v>353</v>
+      </c>
+      <c r="G15" s="122">
+        <f>'Sizing and Cost Calcs'!T16</f>
+        <v>25011.276391653988</v>
+      </c>
+      <c r="H15" s="122">
+        <f>'Sizing and Cost Calcs'!T11</f>
+        <v>4540</v>
+      </c>
+      <c r="I15" s="122">
+        <f>'Sizing and Cost Calcs'!T13</f>
+        <v>6055.5678670360103</v>
+      </c>
+      <c r="J15" s="122">
+        <f>'Sizing and Cost Calcs'!T15</f>
+        <v>14415.708524617978</v>
+      </c>
+      <c r="K15" s="133">
+        <f>'Sizing and Cost Calcs'!T8</f>
+        <v>76500000000</v>
+      </c>
+      <c r="L15" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="122">
+        <f>'Sizing and Cost Calcs'!T14</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="183"/>
+      <c r="E16" s="86" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="17">
+        <f>'Sizing and Cost Calcs'!T26</f>
+        <v>11934.401816553594</v>
+      </c>
+      <c r="H16" s="17">
+        <f>'Sizing and Cost Calcs'!T24</f>
+        <v>2140.2620589115086</v>
+      </c>
+      <c r="I16" s="17">
+        <f>'Sizing and Cost Calcs'!T19</f>
+        <v>6055.5678670360103</v>
+      </c>
+      <c r="J16" s="17">
+        <f>'Sizing and Cost Calcs'!T25</f>
+        <v>3738.5718906060756</v>
+      </c>
+      <c r="K16" s="16">
+        <f>'Sizing and Cost Calcs'!T18</f>
+        <v>6714023875.3362074</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="2">
+        <f>'Sizing and Cost Calcs'!T21</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="136" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="138">
+        <f>'Sizing and Cost Calcs'!T33</f>
+        <v>18124.074637691196</v>
+      </c>
+      <c r="H17" s="138">
+        <f>'Sizing and Cost Calcs'!T27</f>
+        <v>6055.5678670360103</v>
+      </c>
+      <c r="I17" s="138">
+        <f>'Sizing and Cost Calcs'!T28</f>
+        <v>2011.0540886426591</v>
+      </c>
+      <c r="J17" s="138">
+        <f>'Sizing and Cost Calcs'!T31</f>
+        <v>10057.452682012527</v>
+      </c>
+      <c r="K17" s="139">
+        <f>'Sizing and Cost Calcs'!T32</f>
+        <v>58241010519.999992</v>
+      </c>
+      <c r="L17" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="138">
+        <f>'Sizing and Cost Calcs'!T29</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="179" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="125" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" s="122">
+        <f>'Sizing and Cost Calcs'!Z15</f>
+        <v>15210.324251434326</v>
+      </c>
+      <c r="H19" s="122">
+        <f>'Sizing and Cost Calcs'!Z11</f>
+        <v>7230</v>
+      </c>
+      <c r="I19" s="122">
+        <f>'Sizing and Cost Calcs'!Z12</f>
+        <v>6015.1523545706368</v>
+      </c>
+      <c r="J19" s="122">
+        <f>'Sizing and Cost Calcs'!Z14</f>
+        <v>1965.1718968636887</v>
+      </c>
+      <c r="K19" s="133">
+        <f>'Sizing and Cost Calcs'!Z8</f>
+        <v>95630000000</v>
+      </c>
+      <c r="L19" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="122">
+        <f>'Sizing and Cost Calcs'!Z13</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="23"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20" s="17">
+        <f>'Sizing and Cost Calcs'!Z21</f>
+        <v>23626.6693275166</v>
+      </c>
+      <c r="H20" s="17">
+        <f>'Sizing and Cost Calcs'!Z16</f>
+        <v>6015.1523545706368</v>
+      </c>
+      <c r="I20" s="17">
+        <f>'Sizing and Cost Calcs'!Z17</f>
+        <v>1997.6320969529086</v>
+      </c>
+      <c r="J20" s="17">
+        <f>'Sizing and Cost Calcs'!Z20</f>
+        <v>15613.884875993055</v>
+      </c>
+      <c r="K20" s="16">
+        <f>'Sizing and Cost Calcs'!Z22</f>
+        <v>100159805644.04433</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="17">
+        <f>'Sizing and Cost Calcs'!Z18</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="182" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="134" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="32">
+        <f>'Sizing and Cost Calcs'!AF7</f>
+        <v>114570</v>
+      </c>
+      <c r="H22" s="32">
+        <f>'Sizing and Cost Calcs'!AF5</f>
+        <v>3900</v>
+      </c>
+      <c r="I22" s="32">
+        <f>'Sizing and Cost Calcs'!AF3</f>
+        <v>18000</v>
+      </c>
+      <c r="J22" s="32">
+        <f>'Sizing and Cost Calcs'!AF6</f>
+        <v>92670</v>
+      </c>
+      <c r="K22" s="16">
+        <f>'Sizing and Cost Calcs'!AF10</f>
+        <v>158118000000</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="32">
+        <f>'Sizing and Cost Calcs'!AF9</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="136" t="s">
+        <v>361</v>
+      </c>
+      <c r="G23" s="140">
+        <f>'Sizing and Cost Calcs'!AF11</f>
+        <v>18000</v>
+      </c>
+      <c r="H23" s="140">
+        <f>'Sizing and Cost Calcs'!AF12</f>
+        <v>6021</v>
+      </c>
+      <c r="I23" s="140">
+        <f>'Sizing and Cost Calcs'!AF13</f>
+        <v>1999.5741</v>
+      </c>
+      <c r="J23" s="140">
+        <f>'Sizing and Cost Calcs'!AF16</f>
+        <v>7664.1236147577401</v>
+      </c>
+      <c r="K23" s="139">
+        <f>'Sizing and Cost Calcs'!AF17</f>
+        <v>25064294062.5</v>
+      </c>
+      <c r="L23" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="140">
+        <f>'Sizing and Cost Calcs'!AF15</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01502004-969A-48C7-A58A-4DFE112F2B59}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView topLeftCell="G61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z73" sqref="Z73"/>
+    <sheetView topLeftCell="E54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17366,7 +18333,7 @@
     <col min="23" max="23" width="14.85546875" customWidth="1"/>
     <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
     <col min="29" max="29" width="13.140625" customWidth="1"/>
     <col min="30" max="30" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20.140625" bestFit="1" customWidth="1"/>
@@ -17374,136 +18341,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="185" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="J1" s="178" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="Q1" s="178" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="J1" s="175" t="s">
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="W1" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="Q1" s="175" t="s">
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AC1" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="W1" s="175" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AC1" s="177" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="179"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="M3" s="18">
         <f>M16</f>
         <v>5909.9978401806566</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="T3" s="17">
-        <f>MAX(T11,T22,T27)</f>
-        <v>6055.5678670360103</v>
+        <f>SUM(T11,T22,T27)</f>
+        <v>12978.878623054739</v>
       </c>
       <c r="W3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="Z3" s="18">
         <f>Z11+Z16</f>
         <v>13245.152354570637</v>
       </c>
       <c r="AC3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD3" s="44" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AE3" s="44"/>
       <c r="AF3" s="42">
@@ -17512,35 +18479,35 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G4" s="17">
         <f>G8</f>
         <v>6022.2824450466724</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="M4" s="18">
-        <f>MAX(M14,M16)</f>
-        <v>12789.086030741417</v>
+        <f>M14+M17</f>
+        <v>14751.796313465413</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="T4" s="17">
-        <f>SUM(T15+T19)</f>
-        <v>20471.276391653988</v>
+        <f>SUM(T15+T28)</f>
+        <v>16426.762613260638</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="Z4" s="33">
         <f>Z14+Z17</f>
         <v>3962.8039938165975</v>
       </c>
       <c r="AD4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AE4" t="s">
         <v>36</v>
@@ -17551,35 +18518,35 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G5" s="17">
         <f>G9+G12</f>
         <v>53316.152376233069</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M5">
         <v>7020</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="T5" s="2">
         <v>18831</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Z5">
         <v>8200</v>
@@ -17588,10 +18555,10 @@
         <v>2</v>
       </c>
       <c r="AD5" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AE5" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF5" s="34">
         <v>3900</v>
@@ -17599,47 +18566,47 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G6" s="2">
         <v>18831</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="M6">
-        <v>18831</v>
+        <v>22800</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="T6" s="17">
-        <v>17700</v>
+        <v>22800</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Y6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Z6">
         <v>8200</v>
       </c>
       <c r="AC6" s="23"/>
       <c r="AD6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF6" s="32">
         <v>92670</v>
@@ -17647,7 +18614,7 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -17663,31 +18630,31 @@
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="S7" s="21"/>
       <c r="T7" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="W7" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC7" s="23"/>
       <c r="AD7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF7" s="32">
         <f>AF6+AF5+AF3</f>
@@ -17696,13 +18663,13 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D8" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G8" s="22">
         <f>G9/0.3321</f>
@@ -17727,7 +18694,7 @@
       </c>
       <c r="W8" s="23"/>
       <c r="X8" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y8" s="44"/>
       <c r="Z8" s="41">
@@ -17736,7 +18703,7 @@
       </c>
       <c r="AC8" s="23"/>
       <c r="AD8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AF8" s="32">
         <v>3800</v>
@@ -17757,7 +18724,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="17">
         <v>3800</v>
@@ -17767,21 +18734,21 @@
         <v>5</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T9" s="17">
         <v>3800</v>
       </c>
       <c r="W9" s="23"/>
       <c r="X9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z9" s="2">
         <v>3800</v>
       </c>
       <c r="AC9" s="23"/>
       <c r="AD9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF9" s="32">
         <v>348</v>
@@ -17790,10 +18757,10 @@
     <row r="10" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="23"/>
       <c r="E10" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="17">
         <v>9060</v>
@@ -17818,7 +18785,7 @@
       </c>
       <c r="W10" s="23"/>
       <c r="X10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z10" s="17">
         <f>2*Z8/(Z9^2)</f>
@@ -17826,7 +18793,7 @@
       </c>
       <c r="AC10" s="38"/>
       <c r="AD10" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE10" s="28"/>
       <c r="AF10" s="85">
@@ -17863,7 +18830,7 @@
       </c>
       <c r="W11" s="23"/>
       <c r="X11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Z11" s="2">
         <v>7230</v>
@@ -17872,7 +18839,7 @@
         <v>3</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AE11" s="27"/>
       <c r="AF11" s="34">
@@ -17886,7 +18853,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G12" s="17">
         <f>0.95*EXP((G10)/(G11*9.81))*(G9+G8)-(G9+G8)</f>
@@ -17897,25 +18864,25 @@
         <v>7</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M12" s="32">
         <f>M10-M11</f>
         <v>5909.9978401806566</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" s="17">
         <v>1300</v>
       </c>
       <c r="W12" s="23"/>
       <c r="X12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Z12" s="17">
         <f>Z10-Z11</f>
@@ -17923,10 +18890,10 @@
       </c>
       <c r="AC12" s="23"/>
       <c r="AD12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AE12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF12" s="32">
         <f>AF11*0.3345</f>
@@ -17966,17 +18933,17 @@
       </c>
       <c r="W13" s="23"/>
       <c r="X13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z13" s="2">
         <v>2800</v>
       </c>
       <c r="AC13" s="23"/>
       <c r="AD13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AE13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF13" s="84">
         <f>AF12*0.3321</f>
@@ -18002,7 +18969,7 @@
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="17">
@@ -18010,7 +18977,7 @@
       </c>
       <c r="W14" s="23"/>
       <c r="X14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z14" s="32">
         <f>EXP((Z9)/(2800*9.81))*(Z10)-(Z10)</f>
@@ -18018,7 +18985,7 @@
       </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="32">
         <v>2500</v>
@@ -18027,7 +18994,7 @@
     <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J15" s="37"/>
       <c r="K15" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="26">
@@ -18048,7 +19015,7 @@
       </c>
       <c r="W15" s="38"/>
       <c r="X15" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y15" s="28"/>
       <c r="Z15" s="26">
@@ -18057,7 +19024,7 @@
       </c>
       <c r="AC15" s="23"/>
       <c r="AD15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF15" s="32">
         <v>450</v>
@@ -18081,7 +19048,7 @@
       </c>
       <c r="Q16" s="38"/>
       <c r="R16" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S16" s="28"/>
       <c r="T16" s="26">
@@ -18092,10 +19059,10 @@
         <v>3</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Z16" s="17">
         <f>Z12</f>
@@ -18103,10 +19070,10 @@
       </c>
       <c r="AC16" s="23"/>
       <c r="AD16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AE16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AF16" s="32">
         <f>1.11*EXP((AF14)/(AF15*9.81))*(AF13+AF12)-(AF13+AF12)</f>
@@ -18119,7 +19086,7 @@
         <v>9</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M17" s="83">
         <f>M16*0.3321</f>
@@ -18129,17 +19096,17 @@
         <v>348</v>
       </c>
       <c r="Q17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" t="s">
         <v>50</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T17" t="s">
-        <v>51</v>
       </c>
       <c r="W17" s="23"/>
       <c r="X17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="83">
         <f>Z16*0.3321</f>
@@ -18147,7 +19114,7 @@
       </c>
       <c r="AC17" s="38"/>
       <c r="AD17" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE17" s="28"/>
       <c r="AF17" s="35">
@@ -18172,7 +19139,7 @@
       </c>
       <c r="Q18" s="23"/>
       <c r="R18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T18" s="16">
         <f>0.5*(T19+T24)*T20^2</f>
@@ -18180,7 +19147,7 @@
       </c>
       <c r="W18" s="23"/>
       <c r="X18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s">
         <v>25</v>
@@ -18206,7 +19173,7 @@
       </c>
       <c r="Q19" s="23"/>
       <c r="R19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T19" s="17">
         <f>T13</f>
@@ -18214,7 +19181,7 @@
       </c>
       <c r="W19" s="23"/>
       <c r="X19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z19" s="17">
         <v>5000</v>
@@ -18241,14 +19208,14 @@
         <v>5</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T20" s="17">
         <v>1280</v>
       </c>
       <c r="W20" s="23"/>
       <c r="X20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z20" s="17">
         <f>0.95*EXP((Z19)/(Z18*9.81))*(Z17+Z16) - (Z17+Z16)</f>
@@ -18258,7 +19225,7 @@
     <row r="21" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J21" s="3"/>
       <c r="K21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M21" s="16">
         <f>0.5*(M16+M17)*M18^2</f>
@@ -18270,14 +19237,14 @@
       </c>
       <c r="Q21" s="23"/>
       <c r="R21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T21" s="2">
         <v>348</v>
       </c>
       <c r="W21" s="23"/>
       <c r="X21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z21" s="17">
         <f>Z20+Z16+Z17</f>
@@ -18299,10 +19266,10 @@
       </c>
       <c r="Q22" s="23"/>
       <c r="R22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" s="29">
         <f>(T11-T12)/((T15)/(EXP((T20)/(T21*9.81))*(T19+T11)-(T19+T11)))+T12</f>
@@ -18310,7 +19277,7 @@
       </c>
       <c r="W22" s="38"/>
       <c r="X22" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y22" s="28"/>
       <c r="Z22" s="28">
@@ -18324,7 +19291,7 @@
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T23" s="29">
         <f>(T11-T12)/((T15)/(EXP((T20)/(T21*9.81))*(T19+T22)-(T19+T22)))+T12</f>
@@ -18342,7 +19309,7 @@
       </c>
       <c r="Q24" s="23"/>
       <c r="R24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T24" s="29">
         <f>(T11-T12)/((T15)/(EXP((T20)/(T21*9.81))*(T19+T23)-(T19+T23)))+T12</f>
@@ -18356,7 +19323,7 @@
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T25" s="29">
         <f>(EXP((T20)/(T21*9.81))*(T19+T23)-(T19+T23))</f>
@@ -18366,7 +19333,7 @@
     <row r="26" spans="10:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q26" s="38"/>
       <c r="R26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T26" s="29">
         <f>T25+T24+T19</f>
@@ -18381,7 +19348,7 @@
         <v>8</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="T27" s="22">
         <f>T19</f>
@@ -18416,7 +19383,7 @@
         <v>10</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T30" s="17">
         <v>3800</v>
@@ -18438,7 +19405,7 @@
     <row r="32" spans="10:32" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q32" s="23"/>
       <c r="R32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T32" s="16">
         <f>0.5*(T28+T27)*T30^2</f>
@@ -18457,93 +19424,93 @@
       </c>
     </row>
     <row r="34" spans="4:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="176" t="s">
+      <c r="D34" s="185" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
+      <c r="J34" s="185" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" s="185"/>
+      <c r="L34" s="185"/>
+      <c r="M34" s="185"/>
+      <c r="W34" s="185" t="s">
+        <v>124</v>
+      </c>
+      <c r="X34" s="185"/>
+      <c r="Y34" s="185"/>
+      <c r="Z34" s="185"/>
+      <c r="AC34" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="J34" s="176" t="s">
-        <v>148</v>
-      </c>
-      <c r="K34" s="176"/>
-      <c r="L34" s="176"/>
-      <c r="M34" s="176"/>
-      <c r="W34" s="176" t="s">
-        <v>126</v>
-      </c>
-      <c r="X34" s="176"/>
-      <c r="Y34" s="176"/>
-      <c r="Z34" s="176"/>
-      <c r="AC34" s="176" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD34" s="176"/>
-      <c r="AE34" s="176"/>
-      <c r="AF34" s="176"/>
+      <c r="AD34" s="185"/>
+      <c r="AE34" s="185"/>
+      <c r="AF34" s="185"/>
     </row>
     <row r="35" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q35" s="175" t="s">
-        <v>124</v>
-      </c>
-      <c r="R35" s="175"/>
-      <c r="S35" s="175"/>
-      <c r="T35" s="175"/>
+        <v>70</v>
+      </c>
+      <c r="Q35" s="178" t="s">
+        <v>122</v>
+      </c>
+      <c r="R35" s="178"/>
+      <c r="S35" s="178"/>
+      <c r="T35" s="178"/>
       <c r="W35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AE35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="22">
@@ -18551,10 +19518,10 @@
         <v>51316.152376233069</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L36" s="27"/>
       <c r="M36" s="22">
@@ -18562,22 +19529,22 @@
         <v>28130.015146831145</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W36" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y36" s="27"/>
       <c r="Z36" s="22">
@@ -18585,10 +19552,10 @@
         <v>17579.056772856744</v>
       </c>
       <c r="AC36" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD36" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE36" s="27"/>
       <c r="AF36" s="34">
@@ -18598,24 +19565,24 @@
     </row>
     <row r="37" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G37" s="17">
         <f>ROUNDUP(G4/G6, 0)</f>
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M37" s="2">
         <f>ROUNDUP((M11+M16)/M5, 0)</f>
         <v>2</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R37" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S37" s="27"/>
       <c r="T37" s="22">
@@ -18623,14 +19590,14 @@
         <v>28211.733097236582</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z37" s="2">
         <f>ROUNDUP(((Z11+Z16)/Z3), 0)</f>
         <v>1</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AF37" s="2">
         <f>ROUNDUP((AF5+AF13)/AF3, 0)</f>
@@ -18639,35 +19606,35 @@
     </row>
     <row r="38" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G38" s="17">
-        <f>ROUNDUP((G36+G9)/G5, 0)</f>
+        <f>ROUNDUP((G36+G9)/G7, 0)</f>
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M38" s="2">
         <f>ROUNDUP((M17+M14)/M6, 0)</f>
         <v>1</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T38" s="17">
         <f>ROUNDUP((T11+T24+T27)/T5, 0)</f>
         <v>1</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Z38" s="32">
         <f>ROUNDUP((Z14+Z17)/Z3, 0)</f>
         <v>1</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AF38" s="2">
         <v>1</v>
@@ -18678,7 +19645,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F39" s="46"/>
       <c r="G39" s="48">
@@ -18689,15 +19656,15 @@
         <v>1</v>
       </c>
       <c r="K39" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L39" s="46"/>
       <c r="M39" s="48">
-        <f>M17</f>
+        <f>M17/M38</f>
         <v>1962.710282723996</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T39" s="2">
         <f>ROUNDUP((T15+T28)/T6, 0)</f>
@@ -18707,7 +19674,7 @@
         <v>1</v>
       </c>
       <c r="X39" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y39" s="46"/>
       <c r="Z39" s="48">
@@ -18718,7 +19685,7 @@
         <v>1</v>
       </c>
       <c r="AD39" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AE39" s="46"/>
       <c r="AF39" s="49">
@@ -18731,7 +19698,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F40" s="46"/>
       <c r="G40" s="48">
@@ -18742,18 +19709,18 @@
         <v>2</v>
       </c>
       <c r="K40" s="47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L40" s="46"/>
       <c r="M40" s="48">
-        <f>M17</f>
+        <f>M17/M38</f>
         <v>1962.710282723996</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S40" s="46"/>
       <c r="T40" s="48">
@@ -18764,7 +19731,7 @@
         <v>2</v>
       </c>
       <c r="X40" s="47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Y40" s="46"/>
       <c r="Z40" s="49">
@@ -18775,7 +19742,7 @@
         <v>2</v>
       </c>
       <c r="AD40" s="47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE40" s="46"/>
       <c r="AF40" s="49">
@@ -18787,7 +19754,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G41" s="32">
         <f>G39/G38</f>
@@ -18797,7 +19764,7 @@
         <v>3</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M41" s="32">
         <f>M39/M38</f>
@@ -18807,7 +19774,7 @@
         <v>2</v>
       </c>
       <c r="R41" s="47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S41" s="46"/>
       <c r="T41" s="48">
@@ -18818,7 +19785,7 @@
         <v>3</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z41" s="17">
         <f>Z17</f>
@@ -18828,7 +19795,7 @@
         <v>3</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF41" s="32">
         <f>AF39/AF38</f>
@@ -18837,25 +19804,25 @@
     </row>
     <row r="42" spans="4:32" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G42" s="21">
         <v>1</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K42" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="54" t="s">
         <v>100</v>
-      </c>
-      <c r="L42" s="54" t="s">
-        <v>102</v>
       </c>
       <c r="M42" s="21">
         <v>4</v>
@@ -18864,29 +19831,29 @@
         <v>3</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T42" s="32">
         <f>T41/T39</f>
         <v>2011.0540886426591</v>
       </c>
       <c r="W42" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X42" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y42" s="53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Z42" s="21">
         <v>3</v>
       </c>
       <c r="AC42" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AD42" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AE42" s="27"/>
       <c r="AF42" s="21">
@@ -18895,43 +19862,43 @@
     </row>
     <row r="43" spans="4:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M43" s="2">
         <v>3</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S43" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T43" s="21">
         <v>6</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y43" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Z43" s="2">
         <v>3</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF43" s="2">
         <v>0</v>
@@ -18939,34 +19906,34 @@
     </row>
     <row r="44" spans="4:32" ht="60" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M44" s="2">
         <v>1</v>
       </c>
       <c r="R44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S44" s="31" t="s">
         <v>106</v>
-      </c>
-      <c r="S44" s="31" t="s">
-        <v>108</v>
       </c>
       <c r="T44" s="2">
         <v>4</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z44" s="2">
         <v>1</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF44" s="2">
         <v>1</v>
@@ -18974,31 +19941,31 @@
     </row>
     <row r="45" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M45" s="2">
         <v>0</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T45" s="2">
         <v>1</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z45" s="2">
         <v>1</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF45" s="2">
         <v>0</v>
@@ -19006,68 +19973,68 @@
     </row>
     <row r="46" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="X47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G48" s="2">
         <f>G45+G44+G43+G42</f>
         <v>3</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M48" s="2">
         <f>M45+M44+M43+M42</f>
         <v>8</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z48" s="2">
         <f>Z45+Z44+Z43+Z42</f>
         <v>8</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF48" s="2">
         <f>AF45+AF44+AF43+AF42</f>
@@ -19079,7 +20046,7 @@
         <v>4</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="51">
@@ -19090,7 +20057,7 @@
         <v>4</v>
       </c>
       <c r="K49" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L49" s="51"/>
       <c r="M49" s="51">
@@ -19098,7 +20065,7 @@
         <v>8</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T49" s="2">
         <f>T46+T45+T44+T43</f>
@@ -19108,7 +20075,7 @@
         <v>4</v>
       </c>
       <c r="X49" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y49" s="51"/>
       <c r="Z49" s="51">
@@ -19119,7 +20086,7 @@
         <v>4</v>
       </c>
       <c r="AD49" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AE49" s="51"/>
       <c r="AF49" s="51">
@@ -19129,26 +20096,26 @@
     </row>
     <row r="50" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G50" s="56">
         <f>3/24</f>
         <v>0.125</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M50" s="27">
         <v>0.125</v>
@@ -19157,7 +20124,7 @@
         <v>4</v>
       </c>
       <c r="R50" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S50" s="51"/>
       <c r="T50" s="51">
@@ -19165,25 +20132,25 @@
         <v>11</v>
       </c>
       <c r="W50" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="X50" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Y50" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z50" s="27">
         <v>0.125</v>
       </c>
       <c r="AC50" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AD50" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AE50" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF50" s="27">
         <v>0.125</v>
@@ -19191,50 +20158,50 @@
     </row>
     <row r="51" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G51" s="62">
         <f>99</f>
         <v>99</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L51" s="63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M51" s="63">
         <v>99</v>
       </c>
       <c r="Q51" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R51" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S51" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T51" s="27">
         <v>0.125</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y51" s="63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z51" s="63">
         <v>99</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AE51" s="63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF51" s="63">
         <v>99</v>
@@ -19242,49 +20209,49 @@
     </row>
     <row r="52" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E52" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F52" s="59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G52" s="60">
         <f>G42*G50+(G36/G51/60/60/24)</f>
         <v>0.13099936311918176</v>
       </c>
       <c r="K52" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M52">
         <f>M50*2+(M14/M51/60/60/24)</f>
         <v>0.25149516999050009</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S52" s="63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T52" s="63">
         <v>99</v>
       </c>
       <c r="X52" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z52">
         <f>Z50</f>
         <v>0.125</v>
       </c>
       <c r="AD52" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF52">
         <v>0.1</v>
@@ -19292,47 +20259,47 @@
     </row>
     <row r="53" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G53" s="57">
         <v>5</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M53">
         <v>5.0999999999999996</v>
       </c>
       <c r="R53" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T53" s="57">
         <f>T51*2+(T15/T52/60/60/24)</f>
         <v>0.25168533816458777</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Y53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Z53">
         <v>270</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AF53">
         <v>3.04</v>
@@ -19340,44 +20307,44 @@
     </row>
     <row r="54" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L54" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M54">
         <v>0.55000000000000004</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T54" s="57">
         <f>M53</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Y54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z54">
         <v>0.55000000000000004</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AE54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF54">
         <f>0.1666</f>
@@ -19386,7 +20353,7 @@
     </row>
     <row r="55" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F55" s="46"/>
       <c r="G55" s="64">
@@ -19394,7 +20361,7 @@
         <v>5.1309993631191819</v>
       </c>
       <c r="K55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L55" s="46"/>
       <c r="M55" s="46">
@@ -19402,17 +20369,17 @@
         <v>5.9014951699904996</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T55" s="57">
         <f>M54+T51+(T31/T52/60/60/24)</f>
         <v>0.67617581517513248</v>
       </c>
       <c r="X55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y55" s="46"/>
       <c r="Z55" s="46">
@@ -19420,7 +20387,7 @@
         <v>270.67500000000001</v>
       </c>
       <c r="AD55" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AE55" s="46"/>
       <c r="AF55" s="46">
@@ -19430,47 +20397,47 @@
     </row>
     <row r="56" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" t="s">
         <v>154</v>
-      </c>
-      <c r="F56" t="s">
-        <v>156</v>
       </c>
       <c r="G56" s="57">
         <f>G53</f>
         <v>5</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M56">
         <f>M54+M50</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T56" s="57">
         <f>0.1666666</f>
         <v>0.1666666</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Y56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Z56">
         <f>Z54+Z50</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="AC56" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AD56" s="55"/>
       <c r="AE56" s="55"/>
@@ -19479,7 +20446,7 @@
     <row r="57" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="28"/>
       <c r="E57" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F57" s="46"/>
       <c r="G57" s="61">
@@ -19487,16 +20454,16 @@
         <v>15.261998726238364</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L57" t="s">
         <v>158</v>
-      </c>
-      <c r="L57" t="s">
-        <v>160</v>
       </c>
       <c r="M57">
         <v>5</v>
       </c>
       <c r="R57" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S57" s="46"/>
       <c r="T57" s="64">
@@ -19504,10 +20471,10 @@
         <v>6.1945277533397203</v>
       </c>
       <c r="X57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y57" t="s">
         <v>158</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>160</v>
       </c>
       <c r="Z57">
         <f>Z53</f>
@@ -19516,14 +20483,14 @@
     </row>
     <row r="58" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E58" s="55"/>
       <c r="F58" s="55"/>
       <c r="G58" s="55"/>
       <c r="J58" s="28"/>
       <c r="K58" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L58" s="51"/>
       <c r="M58" s="51">
@@ -19531,17 +20498,17 @@
         <v>11.576495169990499</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T58" s="57">
         <f>T56</f>
         <v>0.1666666</v>
       </c>
       <c r="X58" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y58" s="46"/>
       <c r="Z58" s="46">
@@ -19551,23 +20518,23 @@
     </row>
     <row r="59" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J59" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K59" s="55"/>
       <c r="L59" s="55"/>
       <c r="M59" s="55"/>
       <c r="R59" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T59" s="57">
         <f>M54+T51</f>
         <v>0.67500000000000004</v>
       </c>
       <c r="W59" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="X59" s="55"/>
       <c r="Y59" s="55"/>
@@ -19575,10 +20542,10 @@
     </row>
     <row r="60" spans="4:32" x14ac:dyDescent="0.25">
       <c r="R60" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T60" s="57">
         <v>5</v>
@@ -19586,7 +20553,7 @@
     </row>
     <row r="61" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R61" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S61" s="51"/>
       <c r="T61" s="64">
@@ -19596,7 +20563,7 @@
     </row>
     <row r="62" spans="4:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q62" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
@@ -19604,31 +20571,31 @@
     </row>
     <row r="63" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D63" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="89"/>
       <c r="J63" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K63" s="27"/>
       <c r="L63" s="27"/>
       <c r="M63" s="89"/>
       <c r="Q63" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R63" s="27"/>
       <c r="S63" s="27"/>
       <c r="T63" s="89"/>
       <c r="W63" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X63" s="27"/>
       <c r="Y63" s="27"/>
       <c r="Z63" s="89"/>
       <c r="AC63" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD63" s="27"/>
       <c r="AE63" s="27"/>
@@ -19636,85 +20603,83 @@
     </row>
     <row r="64" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D64" s="88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E64" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F64" s="87"/>
       <c r="G64" s="90"/>
       <c r="J64" s="88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K64" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L64" s="87"/>
-      <c r="M64" s="92">
-        <v>610566078</v>
-      </c>
+      <c r="M64" s="92"/>
       <c r="Q64" s="88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R64" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S64" s="87"/>
       <c r="T64" s="92"/>
       <c r="W64" s="88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="X64" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y64" s="87"/>
       <c r="Z64" s="92"/>
       <c r="AC64" s="88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AD64" s="88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE64" s="87"/>
       <c r="AF64" s="92"/>
     </row>
     <row r="65" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G65" s="18"/>
       <c r="J65" s="58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K65" s="58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L65" s="59"/>
       <c r="M65" s="91"/>
       <c r="Q65" s="58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R65" s="58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="S65" s="59"/>
       <c r="T65" s="91"/>
       <c r="W65" s="58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X65" s="58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y65" s="59"/>
       <c r="Z65" s="91"/>
       <c r="AC65" s="58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AD65" s="58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AE65" s="59"/>
       <c r="AF65" s="91"/>
@@ -19722,39 +20687,37 @@
     <row r="66" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G66" s="18"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L66" t="s">
-        <v>328</v>
-      </c>
-      <c r="M66" s="18">
-        <v>768793329</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M66" s="18"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="T66" s="18"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Z66" s="18"/>
       <c r="AC66" s="1"/>
       <c r="AD66" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF66" s="18"/>
     </row>
     <row r="67" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F67" t="str">
         <f>F6</f>
@@ -19766,7 +20729,7 @@
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L67" t="str">
         <f>L5</f>
@@ -19778,7 +20741,7 @@
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="S67" t="str">
         <f>S5</f>
@@ -19790,7 +20753,7 @@
       </c>
       <c r="W67" s="1"/>
       <c r="X67" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y67" t="str">
         <f>Y5</f>
@@ -19802,7 +20765,7 @@
       </c>
       <c r="AC67" s="1"/>
       <c r="AD67" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AE67" t="str">
         <f>AE4</f>
@@ -19813,7 +20776,7 @@
     <row r="68" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G68" s="18">
         <f>G67*(G8)</f>
@@ -19821,10 +20784,10 @@
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L68" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M68" s="18">
         <f>M67*(M3+M11)*3</f>
@@ -19832,15 +20795,15 @@
       </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="T68" s="18">
         <f>T67*T3</f>
-        <v>23474932.520504951</v>
+        <v>50313745.392331585</v>
       </c>
       <c r="W68" s="1"/>
       <c r="X68" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Z68" s="18">
         <f>Z67*Z3</f>
@@ -19848,14 +20811,14 @@
       </c>
       <c r="AC68" s="1"/>
       <c r="AD68" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF68" s="18"/>
     </row>
     <row r="69" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G69" s="18">
         <f>G65+G66+G68</f>
@@ -19863,25 +20826,25 @@
       </c>
       <c r="J69" s="94"/>
       <c r="K69" s="94" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L69" s="63"/>
       <c r="M69" s="95">
         <f>SUM(M65:M66,M68)</f>
-        <v>878113042.61051273</v>
+        <v>109319713.61051267</v>
       </c>
       <c r="Q69" s="94"/>
       <c r="R69" s="94" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S69" s="63"/>
       <c r="T69" s="95">
         <f>SUM(T65:T66,T68)</f>
-        <v>23474932.520504951</v>
+        <v>50313745.392331585</v>
       </c>
       <c r="W69" s="94"/>
       <c r="X69" s="94" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Y69" s="63"/>
       <c r="Z69" s="95">
@@ -19890,64 +20853,64 @@
       </c>
       <c r="AC69" s="94"/>
       <c r="AD69" s="94" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AE69" s="63"/>
       <c r="AF69" s="95"/>
     </row>
     <row r="70" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D70" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E70" s="58" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F70" s="59"/>
       <c r="G70" s="91"/>
       <c r="J70" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M70" s="18">
         <v>300000</v>
       </c>
       <c r="Q70" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="T70" s="18">
         <v>300000</v>
       </c>
       <c r="W70" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Y70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Z70" s="18">
         <v>300000</v>
       </c>
       <c r="AC70" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AE70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF70" s="18">
         <v>300000</v>
@@ -19956,23 +20919,32 @@
     <row r="71" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G71" s="18">
         <v>300000</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="W71" s="1"/>
+      <c r="X71" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z71">
+        <v>85000000</v>
+      </c>
       <c r="AC71" s="1"/>
     </row>
     <row r="72" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F72" t="str">
         <f>F7</f>
@@ -19984,7 +20956,7 @@
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S72" t="str">
         <f>S6</f>
@@ -19996,7 +20968,7 @@
       </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Y72" t="str">
         <f>Y6</f>
@@ -20008,7 +20980,7 @@
       </c>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AE72" t="str">
         <f>AE4</f>
@@ -20022,7 +20994,7 @@
     <row r="73" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G73" s="18">
         <f>G72*G5</f>
@@ -20030,26 +21002,26 @@
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L73" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="M73" s="18">
-        <f>'Launcher Database'!F7</f>
-        <v>3876.5864797408531</v>
+        <f>'Launcher Database'!F9</f>
+        <v>2938.5964912280701</v>
       </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="T73" s="18">
         <f>T4*T72</f>
-        <v>60156820.97547444</v>
+        <v>48271626.977564156</v>
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Z73" s="18">
         <f>Z4*Z72</f>
@@ -20057,7 +21029,7 @@
       </c>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF73" s="18">
         <f>AF3*AF72</f>
@@ -20066,7 +21038,7 @@
     </row>
     <row r="74" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E74" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G74" s="18">
         <f>G70+G71+G73</f>
@@ -20074,40 +21046,40 @@
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M74" s="18">
         <f>M4*M73</f>
-        <v>49577997.995014787</v>
+        <v>43349576.88606064</v>
       </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T74" s="18">
         <f>T73+T70+(T69/60)</f>
-        <v>60848069.85081619</v>
+        <v>49410189.400769681</v>
       </c>
       <c r="W74" s="1"/>
       <c r="X74" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z74" s="18">
-        <f>Z73+Z70</f>
-        <v>41377846.277367167</v>
+        <f>Z73+(Z69/60)</f>
+        <v>43366134.793908842</v>
       </c>
       <c r="AC74" s="1"/>
       <c r="AD74" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AE74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF74" s="18">
         <f>AF73+AF70</f>
@@ -20116,36 +21088,36 @@
     </row>
     <row r="75" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D75" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E75" s="87"/>
       <c r="F75" s="87"/>
       <c r="G75" s="92"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M75" s="18">
         <f>M74+M70</f>
-        <v>49877997.995014787</v>
+        <v>43649576.88606064</v>
       </c>
       <c r="Q75" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R75" s="87"/>
       <c r="S75" s="87"/>
       <c r="T75" s="87"/>
       <c r="W75" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="X75" s="87"/>
       <c r="Y75" s="87"/>
       <c r="Z75" s="87"/>
       <c r="AC75" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AD75" s="87"/>
       <c r="AE75" s="87"/>
@@ -20153,58 +21125,58 @@
     </row>
     <row r="76" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D76" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E76" s="86" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F76" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G76" s="18">
         <f>(G69/60)+G74+G64 +(G75/180)</f>
         <v>126040553.74174254</v>
       </c>
       <c r="J76" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K76" s="87"/>
       <c r="L76" s="87"/>
       <c r="M76" s="87"/>
       <c r="Q76" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S76" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="T76" s="18">
         <f>T69/60+T74+T64</f>
-        <v>61239318.726157941</v>
+        <v>50248751.823975205</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Y76" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Z76" s="18">
         <f>Z69/60+Z74+Z64</f>
-        <v>43666134.793908842</v>
+        <v>45654423.310450517</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AE76" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AF76" s="18">
         <f>AF69/60+AF74+AF64</f>
@@ -20214,7 +21186,7 @@
     <row r="77" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
       <c r="E77" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F77" s="46"/>
       <c r="G77" s="93">
@@ -20222,36 +21194,36 @@
         <v>63020.276870871268</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M77" s="18">
         <f>(M69+M64)/60+M75</f>
-        <v>74689316.671856672</v>
+        <v>45471572.112902515</v>
       </c>
       <c r="R77" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S77" s="46"/>
       <c r="T77" s="93">
         <f>T76/T40</f>
-        <v>30451.353383285084</v>
+        <v>24986.275658995379</v>
       </c>
       <c r="X77" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y77" s="46"/>
       <c r="Z77" s="93">
         <f>Z76/Z39</f>
-        <v>21858.947330950006</v>
+        <v>22854.270003014852</v>
       </c>
       <c r="AD77" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AE77" s="46"/>
       <c r="AF77" s="93">
@@ -20261,7 +21233,7 @@
     </row>
     <row r="78" spans="4:32" x14ac:dyDescent="0.25">
       <c r="E78" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F78" s="46"/>
       <c r="G78" s="93">
@@ -20269,34 +21241,34 @@
         <v>63020.276870871268</v>
       </c>
       <c r="K78" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L78" s="46"/>
       <c r="M78" s="93">
         <f>M77/M39</f>
-        <v>38054.173012329287</v>
+        <v>23167.745394288999</v>
       </c>
       <c r="N78" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R78" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S78" s="46"/>
       <c r="T78" s="93">
         <f>T76/T40</f>
-        <v>30451.353383285084</v>
+        <v>24986.275658995379</v>
       </c>
       <c r="X78" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y78" s="46"/>
       <c r="Z78" s="93">
         <f>Z76/Z40</f>
-        <v>21858.947330950006</v>
+        <v>22854.270003014852</v>
       </c>
       <c r="AD78" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AE78" s="46"/>
       <c r="AF78" s="93">
@@ -20306,33 +21278,33 @@
     <row r="79" spans="4:32" x14ac:dyDescent="0.25">
       <c r="G79" s="18"/>
       <c r="K79" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L79" s="46"/>
       <c r="M79" s="93">
         <f>M77/M40</f>
-        <v>38054.173012329287</v>
+        <v>23167.745394288999</v>
       </c>
     </row>
     <row r="81" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K81" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M81" s="18">
         <f>(M68+M63)/60+M75</f>
-        <v>51699993.221856661</v>
+        <v>45471572.112902515</v>
       </c>
     </row>
     <row r="82" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M82" s="18">
         <f>M81/M39</f>
-        <v>26341.123128016403</v>
+        <v>23167.745394288999</v>
       </c>
     </row>
     <row r="83" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M83" s="18">
         <f>M81/M40</f>
-        <v>26341.123128016403</v>
+        <v>23167.745394288999</v>
       </c>
     </row>
   </sheetData>
@@ -20354,1243 +21326,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E23A57-50A6-4EC7-8215-D5086793F090}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="C2:K16"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="177" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179"/>
-    </row>
-    <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3490</v>
-      </c>
-      <c r="E5" s="8">
-        <v>27200</v>
-      </c>
-      <c r="F5" s="6">
-        <v>462</v>
-      </c>
-      <c r="G5" s="6">
-        <v>22977</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1910</v>
-      </c>
-      <c r="I5" s="82">
-        <f>F5*9.81*LN((G5+E5+D5)/(D5+G5))</f>
-        <v>3203.8245663562479</v>
-      </c>
-      <c r="J5" s="10">
-        <f>0.5*(G5+D5)*(I5^2)</f>
-        <v>135835152923.28055</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2462</v>
-      </c>
-      <c r="E6" s="12">
-        <v>20830</v>
-      </c>
-      <c r="F6" s="12">
-        <v>451</v>
-      </c>
-      <c r="G6" s="12">
-        <v>18850</v>
-      </c>
-      <c r="H6" s="13">
-        <v>3076</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" ref="I6:I8" si="0">F6*9.81*LN((G6+E6+D6)/(D6+G6))</f>
-        <v>3016.3820643287418</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" ref="J6:J8" si="1">0.5*(G6+D6)*(I6^2)</f>
-        <v>96954263437.291916</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="12">
-        <v>3900</v>
-      </c>
-      <c r="E7" s="12">
-        <v>92670</v>
-      </c>
-      <c r="F7" s="12">
-        <v>348</v>
-      </c>
-      <c r="G7" s="12">
-        <v>15600</v>
-      </c>
-      <c r="H7" s="13">
-        <v>5361</v>
-      </c>
-      <c r="I7" s="13">
-        <f t="shared" si="0"/>
-        <v>5972.9282445330382</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" si="1"/>
-        <v>347839750189.82013</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12">
-        <v>4540</v>
-      </c>
-      <c r="E8" s="12">
-        <v>14700</v>
-      </c>
-      <c r="F8" s="12">
-        <v>446</v>
-      </c>
-      <c r="G8" s="12">
-        <v>10865</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2350</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" si="0"/>
-        <v>2931.4204323226427</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="1"/>
-        <v>66189321347.375343</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="177" t="s">
-        <v>381</v>
-      </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-    </row>
-    <row r="11" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3490</v>
-      </c>
-      <c r="E12" s="8">
-        <v>27200</v>
-      </c>
-      <c r="F12" s="6">
-        <v>462</v>
-      </c>
-      <c r="G12" s="6">
-        <v>22977</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1910</v>
-      </c>
-      <c r="I12" s="82">
-        <f>F12*9.81*LN((G12+E12+D12)/(D12+G12))</f>
-        <v>3203.8245663562479</v>
-      </c>
-      <c r="J12" s="10">
-        <f>0.5*(G12+D12)*(I12^2)</f>
-        <v>135835152923.28055</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2462</v>
-      </c>
-      <c r="E13" s="12">
-        <v>20830</v>
-      </c>
-      <c r="F13" s="12">
-        <v>451</v>
-      </c>
-      <c r="G13" s="12">
-        <v>18850</v>
-      </c>
-      <c r="H13" s="13">
-        <v>3076</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" ref="I13:I15" si="2">F13*9.81*LN((G13+E13+D13)/(D13+G13))</f>
-        <v>3016.3820643287418</v>
-      </c>
-      <c r="J13" s="14">
-        <f t="shared" ref="J13:J15" si="3">0.5*(G13+D13)*(I13^2)</f>
-        <v>96954263437.291916</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="12">
-        <v>3900</v>
-      </c>
-      <c r="E14" s="12">
-        <v>92670</v>
-      </c>
-      <c r="F14" s="12">
-        <v>348</v>
-      </c>
-      <c r="G14" s="12">
-        <v>15600</v>
-      </c>
-      <c r="H14" s="13">
-        <v>5361</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="2"/>
-        <v>5972.9282445330382</v>
-      </c>
-      <c r="J14" s="14">
-        <f t="shared" si="3"/>
-        <v>347839750189.82013</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12">
-        <v>4540</v>
-      </c>
-      <c r="E15" s="12">
-        <v>14700</v>
-      </c>
-      <c r="F15" s="12">
-        <v>446</v>
-      </c>
-      <c r="G15" s="12">
-        <v>10865</v>
-      </c>
-      <c r="H15" s="12">
-        <v>2350</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="2"/>
-        <v>2931.4204323226427</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="3"/>
-        <v>66189321347.375343</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C10:J10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAA59C2-44B5-40C0-B117-24B7299CEE07}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B4:M28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="175" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="131" t="s">
-        <v>365</v>
-      </c>
-      <c r="E5" s="128" t="s">
-        <v>371</v>
-      </c>
-      <c r="F5" s="129" t="s">
-        <v>354</v>
-      </c>
-      <c r="G5" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="129" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="129" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="129" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="183" t="s">
-        <v>366</v>
-      </c>
-      <c r="E6" s="130" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" s="130" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="125" t="s">
-        <v>353</v>
-      </c>
-      <c r="F7" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="132" t="s">
-        <v>364</v>
-      </c>
-      <c r="G8" s="26">
-        <f>'Sizing and Cost Calcs'!G13</f>
-        <v>59338.434821279741</v>
-      </c>
-      <c r="H8" s="26">
-        <f>'Sizing and Cost Calcs'!G8</f>
-        <v>6022.2824450466724</v>
-      </c>
-      <c r="I8" s="26">
-        <f>'Sizing and Cost Calcs'!G9</f>
-        <v>2000</v>
-      </c>
-      <c r="J8" s="26">
-        <f>'Sizing and Cost Calcs'!G12</f>
-        <v>51316.152376233069</v>
-      </c>
-      <c r="K8" s="35">
-        <f>'Sizing and Cost Calcs'!G10^2*('Sizing and Cost Calcs'!G8+'Sizing and Cost Calcs'!G9)*0.5</f>
-        <v>329248911653.11652</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="25">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="180" t="s">
-        <v>367</v>
-      </c>
-      <c r="E9" s="125" t="s">
-        <v>352</v>
-      </c>
-      <c r="F9" s="125" t="str">
-        <f>'Sizing and Cost Calcs'!L5</f>
-        <v>Atlas V 551</v>
-      </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="181"/>
-      <c r="E10" s="86" t="s">
-        <v>353</v>
-      </c>
-      <c r="F10" s="86" t="str">
-        <f>'Sizing and Cost Calcs'!L6</f>
-        <v>Atlas V 551</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="181"/>
-      <c r="E11" s="125" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="125" t="s">
-        <v>363</v>
-      </c>
-      <c r="G11" s="122">
-        <f>'Sizing and Cost Calcs'!M15</f>
-        <v>22189.083870922073</v>
-      </c>
-      <c r="H11" s="122">
-        <f>'Sizing and Cost Calcs'!M11</f>
-        <v>3490</v>
-      </c>
-      <c r="I11" s="122">
-        <f>'Sizing and Cost Calcs'!M12</f>
-        <v>5909.9978401806566</v>
-      </c>
-      <c r="J11" s="122">
-        <f>'Sizing and Cost Calcs'!M14</f>
-        <v>12789.086030741417</v>
-      </c>
-      <c r="K11" s="133">
-        <f>'Sizing and Cost Calcs'!M8</f>
-        <v>67867984406.10434</v>
-      </c>
-      <c r="L11" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="122">
-        <f>'Sizing and Cost Calcs'!M13</f>
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>364</v>
-      </c>
-      <c r="G12" s="17">
-        <f>'Sizing and Cost Calcs'!M22</f>
-        <v>23213.637238994379</v>
-      </c>
-      <c r="H12" s="17">
-        <f>'Sizing and Cost Calcs'!M17</f>
-        <v>1962.710282723996</v>
-      </c>
-      <c r="I12" s="17">
-        <f>'Sizing and Cost Calcs'!M17</f>
-        <v>1962.710282723996</v>
-      </c>
-      <c r="J12" s="17">
-        <f>'Sizing and Cost Calcs'!M20</f>
-        <v>15340.929116089726</v>
-      </c>
-      <c r="K12" s="16">
-        <f>'Sizing and Cost Calcs'!M21</f>
-        <v>98408851536.308151</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="17">
-        <f>'Sizing and Cost Calcs'!M19</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="183" t="s">
-        <v>368</v>
-      </c>
-      <c r="E13" s="134" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" s="134" t="str">
-        <f>'Sizing and Cost Calcs'!S5</f>
-        <v>Atlas V 551</v>
-      </c>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="86" t="s">
-        <v>353</v>
-      </c>
-      <c r="F14" s="86" t="str">
-        <f>'Sizing and Cost Calcs'!S6</f>
-        <v>Falcon 9</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="125" t="s">
-        <v>356</v>
-      </c>
-      <c r="G15" s="122">
-        <f>'Sizing and Cost Calcs'!T16</f>
-        <v>25011.276391653988</v>
-      </c>
-      <c r="H15" s="122">
-        <f>'Sizing and Cost Calcs'!T11</f>
-        <v>4540</v>
-      </c>
-      <c r="I15" s="122">
-        <f>'Sizing and Cost Calcs'!T13</f>
-        <v>6055.5678670360103</v>
-      </c>
-      <c r="J15" s="122">
-        <f>'Sizing and Cost Calcs'!T15</f>
-        <v>14415.708524617978</v>
-      </c>
-      <c r="K15" s="133">
-        <f>'Sizing and Cost Calcs'!T8</f>
-        <v>76500000000</v>
-      </c>
-      <c r="L15" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="122">
-        <f>'Sizing and Cost Calcs'!T14</f>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="184"/>
-      <c r="E16" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" s="17">
-        <f>'Sizing and Cost Calcs'!T26</f>
-        <v>11934.401816553594</v>
-      </c>
-      <c r="H16" s="17">
-        <f>'Sizing and Cost Calcs'!T24</f>
-        <v>2140.2620589115086</v>
-      </c>
-      <c r="I16" s="17">
-        <f>'Sizing and Cost Calcs'!T19</f>
-        <v>6055.5678670360103</v>
-      </c>
-      <c r="J16" s="17">
-        <f>'Sizing and Cost Calcs'!T25</f>
-        <v>3738.5718906060756</v>
-      </c>
-      <c r="K16" s="16">
-        <f>'Sizing and Cost Calcs'!T18</f>
-        <v>6714023875.3362074</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="2">
-        <f>'Sizing and Cost Calcs'!T21</f>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="136" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="136" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="138">
-        <f>'Sizing and Cost Calcs'!T33</f>
-        <v>18124.074637691196</v>
-      </c>
-      <c r="H17" s="138">
-        <f>'Sizing and Cost Calcs'!T27</f>
-        <v>6055.5678670360103</v>
-      </c>
-      <c r="I17" s="138">
-        <f>'Sizing and Cost Calcs'!T28</f>
-        <v>2011.0540886426591</v>
-      </c>
-      <c r="J17" s="138">
-        <f>'Sizing and Cost Calcs'!T31</f>
-        <v>10057.452682012527</v>
-      </c>
-      <c r="K17" s="139">
-        <f>'Sizing and Cost Calcs'!T32</f>
-        <v>58241010519.999992</v>
-      </c>
-      <c r="L17" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="138">
-        <f>'Sizing and Cost Calcs'!T29</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="180" t="s">
-        <v>369</v>
-      </c>
-      <c r="E18" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="86" t="s">
-        <v>359</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="125" t="s">
-        <v>361</v>
-      </c>
-      <c r="G19" s="122">
-        <f>'Sizing and Cost Calcs'!Z15</f>
-        <v>15210.324251434326</v>
-      </c>
-      <c r="H19" s="122">
-        <f>'Sizing and Cost Calcs'!Z11</f>
-        <v>7230</v>
-      </c>
-      <c r="I19" s="122">
-        <f>'Sizing and Cost Calcs'!Z12</f>
-        <v>6015.1523545706368</v>
-      </c>
-      <c r="J19" s="122">
-        <f>'Sizing and Cost Calcs'!Z14</f>
-        <v>1965.1718968636887</v>
-      </c>
-      <c r="K19" s="133">
-        <f>'Sizing and Cost Calcs'!Z8</f>
-        <v>95630000000</v>
-      </c>
-      <c r="L19" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="M19" s="122">
-        <f>'Sizing and Cost Calcs'!Z13</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="86" t="s">
-        <v>364</v>
-      </c>
-      <c r="G20" s="17">
-        <f>'Sizing and Cost Calcs'!Z21</f>
-        <v>23626.6693275166</v>
-      </c>
-      <c r="H20" s="17">
-        <f>'Sizing and Cost Calcs'!Z16</f>
-        <v>6015.1523545706368</v>
-      </c>
-      <c r="I20" s="17">
-        <f>'Sizing and Cost Calcs'!Z17</f>
-        <v>1997.6320969529086</v>
-      </c>
-      <c r="J20" s="17">
-        <f>'Sizing and Cost Calcs'!Z20</f>
-        <v>15613.884875993055</v>
-      </c>
-      <c r="K20" s="16">
-        <f>'Sizing and Cost Calcs'!Z22</f>
-        <v>100159805644.04433</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="17">
-        <f>'Sizing and Cost Calcs'!Z18</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="183" t="s">
-        <v>370</v>
-      </c>
-      <c r="E21" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="86" t="s">
-        <v>362</v>
-      </c>
-      <c r="G22" s="32">
-        <f>'Sizing and Cost Calcs'!AF7</f>
-        <v>114570</v>
-      </c>
-      <c r="H22" s="32">
-        <f>'Sizing and Cost Calcs'!AF5</f>
-        <v>3900</v>
-      </c>
-      <c r="I22" s="32">
-        <f>'Sizing and Cost Calcs'!AF3</f>
-        <v>18000</v>
-      </c>
-      <c r="J22" s="32">
-        <f>'Sizing and Cost Calcs'!AF6</f>
-        <v>92670</v>
-      </c>
-      <c r="K22" s="16">
-        <f>'Sizing and Cost Calcs'!AF10</f>
-        <v>158118000000</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="32">
-        <f>'Sizing and Cost Calcs'!AF9</f>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="136" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="136" t="s">
-        <v>364</v>
-      </c>
-      <c r="G23" s="140">
-        <f>'Sizing and Cost Calcs'!AF11</f>
-        <v>18000</v>
-      </c>
-      <c r="H23" s="140">
-        <f>'Sizing and Cost Calcs'!AF12</f>
-        <v>6021</v>
-      </c>
-      <c r="I23" s="140">
-        <f>'Sizing and Cost Calcs'!AF13</f>
-        <v>1999.5741</v>
-      </c>
-      <c r="J23" s="140">
-        <f>'Sizing and Cost Calcs'!AF16</f>
-        <v>7664.1236147577401</v>
-      </c>
-      <c r="K23" s="139">
-        <f>'Sizing and Cost Calcs'!AF17</f>
-        <v>25064294062.5</v>
-      </c>
-      <c r="L23" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="140">
-        <f>'Sizing and Cost Calcs'!AF15</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D6:D8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D685C4A-6611-45E2-BB7C-3CFB0014F712}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="C2:L10"/>
-  <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="12" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="127" t="s">
-        <v>349</v>
-      </c>
-      <c r="D3" s="127" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="127" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="127" t="s">
-        <v>345</v>
-      </c>
-      <c r="G3" s="127" t="s">
-        <v>346</v>
-      </c>
-      <c r="H3" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="127" t="s">
-        <v>347</v>
-      </c>
-      <c r="J3" s="127" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="127" t="s">
-        <v>172</v>
-      </c>
-      <c r="L3" s="127" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="127" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="71">
-        <v>1</v>
-      </c>
-      <c r="F4" s="66">
-        <v>1</v>
-      </c>
-      <c r="G4" s="66">
-        <v>1</v>
-      </c>
-      <c r="H4" s="66">
-        <v>1</v>
-      </c>
-      <c r="I4" s="66">
-        <v>1</v>
-      </c>
-      <c r="J4" s="66">
-        <v>1</v>
-      </c>
-      <c r="K4" s="67">
-        <f t="shared" ref="K4:K10" si="0">SUM(D4:J4)+1</f>
-        <v>7</v>
-      </c>
-      <c r="L4" s="68">
-        <f>K4/SUM(K4:K10)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="127" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="71">
-        <v>0</v>
-      </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="71">
-        <v>0</v>
-      </c>
-      <c r="G5" s="71">
-        <v>0</v>
-      </c>
-      <c r="H5" s="71">
-        <v>1</v>
-      </c>
-      <c r="I5" s="71">
-        <v>1</v>
-      </c>
-      <c r="J5" s="71">
-        <v>1</v>
-      </c>
-      <c r="K5" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L5" s="72">
-        <f>K5/SUM(K4:K10)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="127" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="69">
-        <v>0</v>
-      </c>
-      <c r="E6" s="71">
-        <v>1</v>
-      </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71">
-        <v>1</v>
-      </c>
-      <c r="H6" s="71">
-        <v>0</v>
-      </c>
-      <c r="I6" s="71">
-        <v>1</v>
-      </c>
-      <c r="J6" s="71">
-        <v>1</v>
-      </c>
-      <c r="K6" s="65">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L6" s="72">
-        <f>K6/SUM($K$4:$K$10)</f>
-        <v>0.17857142857142858</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="127" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" s="69">
-        <v>0</v>
-      </c>
-      <c r="E7" s="71">
-        <v>1</v>
-      </c>
-      <c r="F7" s="71">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71">
-        <v>0</v>
-      </c>
-      <c r="I7" s="71">
-        <v>1</v>
-      </c>
-      <c r="J7" s="71">
-        <v>1</v>
-      </c>
-      <c r="K7" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L7" s="72">
-        <f>K7/SUM($K$4:$K$10)</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="69">
-        <v>0</v>
-      </c>
-      <c r="E8" s="71">
-        <v>0</v>
-      </c>
-      <c r="F8" s="71">
-        <v>1</v>
-      </c>
-      <c r="G8" s="71">
-        <v>1</v>
-      </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71">
-        <v>0</v>
-      </c>
-      <c r="J8" s="71">
-        <v>0</v>
-      </c>
-      <c r="K8" s="65">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L8" s="72">
-        <f>K8/SUM($K$4:$K$10)</f>
-        <v>0.10714285714285714</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="127" t="s">
-        <v>347</v>
-      </c>
-      <c r="D9" s="69">
-        <v>0</v>
-      </c>
-      <c r="E9" s="71">
-        <v>0</v>
-      </c>
-      <c r="F9" s="71">
-        <v>0</v>
-      </c>
-      <c r="G9" s="71">
-        <v>0</v>
-      </c>
-      <c r="H9" s="71">
-        <v>1</v>
-      </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71">
-        <v>1</v>
-      </c>
-      <c r="K9" s="65">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L9" s="72">
-        <f>K9/SUM($K$4:$K$10)</f>
-        <v>0.10714285714285714</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="127" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="73">
-        <v>0</v>
-      </c>
-      <c r="E10" s="74">
-        <v>0</v>
-      </c>
-      <c r="F10" s="74">
-        <v>0</v>
-      </c>
-      <c r="G10" s="74">
-        <v>0</v>
-      </c>
-      <c r="H10" s="74">
-        <v>1</v>
-      </c>
-      <c r="I10" s="74">
-        <v>0</v>
-      </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L10" s="77">
-        <f>K10/SUM($K$4:$K$10)</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1ABFC45-A3E7-4C9B-8682-7F494A0D9F79}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="C3:S46"/>
+  <dimension ref="C3:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A44" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21610,48 +21352,48 @@
   <sheetData>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D4" s="80">
         <f>'Sizing and Cost Calcs'!G77</f>
@@ -21659,22 +21401,22 @@
       </c>
       <c r="E4" s="80">
         <f>'Sizing and Cost Calcs'!M82</f>
-        <v>26341.123128016403</v>
+        <v>23167.745394288999</v>
       </c>
       <c r="F4" s="80">
         <f>'Sizing and Cost Calcs'!T77</f>
-        <v>30451.353383285084</v>
+        <v>24986.275658995379</v>
       </c>
       <c r="G4" s="80">
         <f>'Sizing and Cost Calcs'!Z77</f>
-        <v>21858.947330950006</v>
+        <v>22854.270003014852</v>
       </c>
       <c r="H4" s="80">
         <f>'Sizing and Cost Calcs'!AF77</f>
         <v>64449.438793705413</v>
       </c>
       <c r="K4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L4" s="29">
         <f>'Pairwise Comparison'!L4</f>
@@ -21686,15 +21428,15 @@
       </c>
       <c r="N4" s="29">
         <f t="shared" ref="N4:Q4" si="0">(100-E4/MAX($D$4:$H$4)*100)*$L4</f>
-        <v>14.782252715833941</v>
+        <v>16.013209025587464</v>
       </c>
       <c r="O4" s="29">
         <f t="shared" si="0"/>
-        <v>13.187890401669728</v>
+        <v>15.307799366968377</v>
       </c>
       <c r="P4" s="29">
         <f t="shared" si="0"/>
-        <v>16.520893067464186</v>
+        <v>16.134806434789716</v>
       </c>
       <c r="Q4" s="29">
         <f t="shared" si="0"/>
@@ -21703,7 +21445,7 @@
     </row>
     <row r="5" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" s="80">
         <f>'Sizing and Cost Calcs'!G78</f>
@@ -21711,19 +21453,19 @@
       </c>
       <c r="E5" s="80">
         <f>'Sizing and Cost Calcs'!M83</f>
-        <v>26341.123128016403</v>
+        <v>23167.745394288999</v>
       </c>
       <c r="F5" s="80">
         <f>'Sizing and Cost Calcs'!T78</f>
-        <v>30451.353383285084</v>
+        <v>24986.275658995379</v>
       </c>
       <c r="G5" s="80">
         <f>'Sizing and Cost Calcs'!Z78</f>
-        <v>21858.947330950006</v>
+        <v>22854.270003014852</v>
       </c>
       <c r="H5" s="80"/>
       <c r="K5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L5" s="29">
         <f>'Pairwise Comparison'!L5</f>
@@ -21735,23 +21477,23 @@
       </c>
       <c r="N5" s="29">
         <f>(100-E5/MAX($D$5:$H$5)*100)*$L5</f>
-        <v>8.3145923285272954</v>
+        <v>9.0339475880664839</v>
       </c>
       <c r="O5" s="29">
         <f>(100-F5/MAX($D$5:$H$5)*100)*$L5</f>
-        <v>7.3828672078081432</v>
+        <v>8.6217151277942019</v>
       </c>
       <c r="P5" s="29">
         <f>(100-G5/MAX($D$5:$H$5)*100)*$L5</f>
-        <v>9.3306317049717062</v>
+        <v>9.1050075722128696</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="81">
         <f>'Sizing and Cost Calcs'!G41</f>
@@ -21774,7 +21516,7 @@
         <v>1999.5741</v>
       </c>
       <c r="K6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L6" s="29">
         <f>'Pairwise Comparison'!L6</f>
@@ -21803,7 +21545,7 @@
     </row>
     <row r="7" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="81">
         <f>'Sizing and Cost Calcs'!G41</f>
@@ -21825,7 +21567,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L7" s="29">
         <f>'Pairwise Comparison'!L7</f>
@@ -21854,7 +21596,7 @@
     </row>
     <row r="8" spans="3:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="79">
         <f>'Sizing and Cost Calcs'!G55</f>
@@ -21877,7 +21619,7 @@
         <v>3.3066</v>
       </c>
       <c r="K8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L8" s="29">
         <f>'Pairwise Comparison'!L8</f>
@@ -21906,7 +21648,7 @@
     </row>
     <row r="9" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="78" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="3">
         <f>'Sizing and Cost Calcs'!G49</f>
@@ -21929,7 +21671,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L9" s="29">
         <f>'Pairwise Comparison'!L9</f>
@@ -21966,7 +21708,7 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L11" s="29">
         <f>SUM(L4:L9)</f>
@@ -21978,15 +21720,15 @@
       </c>
       <c r="N11" s="29">
         <f t="shared" si="7"/>
-        <v>67.869780144619867</v>
+        <v>69.820091713912561</v>
       </c>
       <c r="O11" s="29">
         <f t="shared" si="7"/>
-        <v>63.182698877207763</v>
+        <v>66.541455762492461</v>
       </c>
       <c r="P11" s="29">
         <f t="shared" si="7"/>
-        <v>60.701934945229723</v>
+        <v>60.090224179796408</v>
       </c>
       <c r="Q11" s="29">
         <f t="shared" si="7"/>
@@ -21995,48 +21737,48 @@
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="3:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D16" s="80">
         <v>62890.577433628772</v>
@@ -22054,7 +21796,7 @@
         <v>64449.438793705413</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L16" s="29">
         <v>0.25</v>
@@ -22077,7 +21819,7 @@
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" s="80">
         <v>62890.577433628772</v>
@@ -22093,7 +21835,7 @@
       </c>
       <c r="H17" s="80"/>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L17" s="29">
         <v>0.14285714285714285</v>
@@ -22111,12 +21853,12 @@
         <v>9.3306317049717062</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="81">
         <v>2000</v>
@@ -22134,7 +21876,7 @@
         <v>1999.5741</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L18" s="29">
         <v>0.17857142857142858</v>
@@ -22157,7 +21899,7 @@
     </row>
     <row r="19" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D19" s="81">
         <v>2000</v>
@@ -22175,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L19" s="29">
         <v>0.14285714285714285</v>
@@ -22198,7 +21940,7 @@
     </row>
     <row r="20" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" s="79">
         <v>5.1309993631191819</v>
@@ -22216,7 +21958,7 @@
         <v>3.3066</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L20" s="29">
         <v>0.10714285714285714</v>
@@ -22239,7 +21981,7 @@
     </row>
     <row r="21" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="78" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -22257,7 +21999,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L21" s="29">
         <v>0.10714285714285714</v>
@@ -22288,7 +22030,7 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L23" s="29">
         <v>0.92857142857142838</v>
@@ -22310,34 +22052,41 @@
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f>1/0.93</f>
+        <v>1.075268817204301</v>
+      </c>
+      <c r="I26">
+        <v>1.0752688172042999</v>
+      </c>
       <c r="K26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s">
+        <v>171</v>
+      </c>
+      <c r="M26" t="s">
+        <v>176</v>
+      </c>
+      <c r="N26" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" t="s">
         <v>173</v>
       </c>
-      <c r="M26" t="s">
-        <v>178</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>174</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>175</v>
       </c>
-      <c r="P26" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>177</v>
-      </c>
       <c r="S26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L27" s="29">
         <v>0.25</v>
@@ -22364,7 +22113,7 @@
     </row>
     <row r="28" spans="3:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="186" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D28" s="187"/>
       <c r="E28" s="187"/>
@@ -22373,7 +22122,7 @@
       <c r="H28" s="187"/>
       <c r="I28" s="188"/>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="29">
         <v>0.55437330005646501</v>
@@ -22400,28 +22149,28 @@
     </row>
     <row r="29" spans="3:19" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="167" t="s">
+        <v>370</v>
+      </c>
+      <c r="D29" s="168" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" s="168" t="s">
+        <v>376</v>
+      </c>
+      <c r="F29" s="168" t="s">
+        <v>372</v>
+      </c>
+      <c r="G29" s="168" t="s">
         <v>373</v>
       </c>
-      <c r="D29" s="168" t="s">
+      <c r="H29" s="168" t="s">
         <v>374</v>
       </c>
-      <c r="E29" s="168" t="s">
-        <v>379</v>
-      </c>
-      <c r="F29" s="168" t="s">
+      <c r="I29" s="168" t="s">
         <v>375</v>
       </c>
-      <c r="G29" s="168" t="s">
-        <v>376</v>
-      </c>
-      <c r="H29" s="168" t="s">
-        <v>377</v>
-      </c>
-      <c r="I29" s="168" t="s">
-        <v>378</v>
-      </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L29" s="29">
         <v>14.782252715833941</v>
@@ -22448,28 +22197,34 @@
     </row>
     <row r="30" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" s="169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="170">
+        <f>'Sizing and Cost Calcs'!G77</f>
         <v>63020.276870871268</v>
       </c>
       <c r="E30" s="170">
+        <f>'Sizing and Cost Calcs'!G78</f>
         <v>63020.276870871268</v>
       </c>
       <c r="F30" s="170">
+        <f>'Sizing and Cost Calcs'!G39</f>
         <v>2000</v>
       </c>
       <c r="G30" s="170">
+        <f>'Sizing and Cost Calcs'!G40</f>
         <v>2000</v>
       </c>
       <c r="H30" s="170">
+        <f>'Sizing and Cost Calcs'!G55</f>
         <v>5.1309993631191819</v>
       </c>
       <c r="I30" s="169">
+        <f>'Sizing and Cost Calcs'!G49</f>
         <v>3</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L30" s="29">
         <v>13.187890401669728</v>
@@ -22496,28 +22251,34 @@
     </row>
     <row r="31" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="172">
-        <v>26341.123128016403</v>
+        <f>'Sizing and Cost Calcs'!M78</f>
+        <v>23167.745394288999</v>
       </c>
       <c r="E31" s="172">
-        <v>26341.123128016403</v>
+        <f>'Sizing and Cost Calcs'!M79</f>
+        <v>23167.745394288999</v>
       </c>
       <c r="F31" s="172">
+        <f>'Sizing and Cost Calcs'!M39</f>
         <v>1962.710282723996</v>
       </c>
       <c r="G31" s="172">
+        <f>'Sizing and Cost Calcs'!M40</f>
         <v>1962.710282723996</v>
       </c>
       <c r="H31" s="172">
+        <f>'Sizing and Cost Calcs'!M55</f>
         <v>5.9014951699904996</v>
       </c>
       <c r="I31" s="171">
+        <f>'Sizing and Cost Calcs'!M49</f>
         <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" s="29">
         <v>16.520893067464186</v>
@@ -22544,34 +22305,40 @@
     </row>
     <row r="32" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="169" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="170">
-        <v>39804.95731583958</v>
+        <f>'Sizing and Cost Calcs'!T77</f>
+        <v>24986.275658995379</v>
       </c>
       <c r="E32" s="170">
-        <v>39804.95731583958</v>
+        <f>'Sizing and Cost Calcs'!T78</f>
+        <v>24986.275658995379</v>
       </c>
       <c r="F32" s="170">
-        <v>1005.5270443213295</v>
+        <f>'Sizing and Cost Calcs'!T40</f>
+        <v>2011.0540886426591</v>
       </c>
       <c r="G32" s="170">
-        <v>1005.5270443213295</v>
+        <f>'Sizing and Cost Calcs'!T41</f>
+        <v>2011.0540886426591</v>
       </c>
       <c r="H32" s="170">
+        <f>'Sizing and Cost Calcs'!T57</f>
         <v>6.1945277533397203</v>
       </c>
       <c r="I32" s="169">
+        <f>'Sizing and Cost Calcs'!T50</f>
         <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L32" s="29">
         <v>0</v>
       </c>
       <c r="M32" s="29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N32" s="29">
         <v>17.755206366051908</v>
@@ -22592,248 +22359,292 @@
     </row>
     <row r="33" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="171" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="172">
-        <v>10512.349220740251</v>
+        <f>'Sizing and Cost Calcs'!Z77</f>
+        <v>22854.270003014852</v>
       </c>
       <c r="E33" s="172">
-        <v>10512.349220740251</v>
+        <f>'Sizing and Cost Calcs'!Z78</f>
+        <v>22854.270003014852</v>
       </c>
       <c r="F33" s="172">
+        <f>'Sizing and Cost Calcs'!Z39</f>
         <v>1997.6320969529086</v>
       </c>
       <c r="G33" s="172">
+        <f>'Sizing and Cost Calcs'!Z40</f>
         <v>1997.6320969529086</v>
       </c>
       <c r="H33" s="172">
+        <f>'Sizing and Cost Calcs'!Z55</f>
         <v>270.67500000000001</v>
       </c>
       <c r="I33" s="171">
+        <f>'Sizing and Cost Calcs'!Z49</f>
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="173" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D34" s="174">
+        <f>'Sizing and Cost Calcs'!AF77</f>
         <v>64449.438793705413</v>
       </c>
-      <c r="E34" s="174" t="s">
-        <v>240</v>
+      <c r="E34" s="174">
+        <v>0</v>
       </c>
       <c r="F34" s="174">
+        <f>'Sizing and Cost Calcs'!AF39</f>
         <v>1999.5741</v>
       </c>
-      <c r="G34" s="174" t="s">
-        <v>240</v>
+      <c r="G34" s="174">
+        <v>0</v>
       </c>
       <c r="H34" s="174">
+        <f>'Sizing and Cost Calcs'!AF55</f>
         <v>3.3066</v>
       </c>
       <c r="I34" s="173">
+        <f>'Sizing and Cost Calcs'!AF49</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="176" t="s">
-        <v>380</v>
-      </c>
-      <c r="D38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="176"/>
-    </row>
-    <row r="39" spans="3:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="185" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="185"/>
+    </row>
+    <row r="39" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="141" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D39" s="142" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E39" s="142" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F39" s="142" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G39" s="142" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="H39" s="142" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="I39" s="142" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="J39" s="143" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="144" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D40" s="129">
-        <v>0.25</v>
+        <f>1.0752688172043*0.25</f>
+        <v>0.26881720430107497</v>
       </c>
       <c r="E40" s="129">
-        <v>0.14285714285714285</v>
+        <f>0.142857142857143*1.0752688172043</f>
+        <v>0.15360983102918585</v>
       </c>
       <c r="F40" s="129">
-        <v>0.17857142857142858</v>
+        <f>0.178571428571429*1.0752688172043</f>
+        <v>0.19201228878648258</v>
       </c>
       <c r="G40" s="129">
-        <v>0.14285714285714285</v>
+        <f>0.142857142857143*1.0752688172043</f>
+        <v>0.15360983102918585</v>
       </c>
       <c r="H40" s="129">
-        <v>0.10714285714285714</v>
+        <f>0.107142857142857*1.0752688172043</f>
+        <v>0.11520737327188912</v>
       </c>
       <c r="I40" s="129">
-        <v>0.10714285714285714</v>
+        <f>0.107142857142857*1.0752688172043</f>
+        <v>0.11520737327188912</v>
       </c>
       <c r="J40" s="129">
         <f>SUM(D40:I40)</f>
-        <v>0.92857142857142838</v>
+        <v>0.99846390168970744</v>
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D41" s="29">
-        <v>0.55437330005646501</v>
+        <f>$D$40*(1-D30/MAX(D$30:D$34))*100</f>
+        <v>0.59610032264136004</v>
       </c>
       <c r="E41" s="29">
+        <f>$E$40*(1-E30/MAX(E$30:E$34))*100</f>
         <v>0</v>
       </c>
       <c r="F41" s="29">
-        <v>17.758988142576868</v>
+        <f>F$40*(F30/MAX(F$30:F$34))*100</f>
+        <v>19.09568617481386</v>
       </c>
       <c r="G41" s="29">
-        <v>14.207190514061494</v>
+        <f>G$40*(G30/MAX(G$30:G$34))*100</f>
+        <v>15.276548939851068</v>
       </c>
       <c r="H41" s="29">
-        <v>10.51118238676645</v>
+        <f>H$40*(1-H30/MAX(H$30:H$34))*100</f>
+        <v>11.302346652437016</v>
       </c>
       <c r="I41" s="29">
-        <v>7.7922077922077921</v>
+        <f>I$40*(1-I30/MAX(I$30:I$34))*100</f>
+        <v>8.3787180561373908</v>
       </c>
       <c r="J41" s="29">
         <f t="shared" ref="J41:J45" si="8">SUM(D41:I41)</f>
-        <v>50.823942135669071</v>
+        <v>54.649400145880691</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="121" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D42" s="145">
-        <v>14.782252715833941</v>
+        <f t="shared" ref="D42:D45" si="9">$D$40*(1-D31/MAX(D$30:D$34))*100</f>
+        <v>17.218504328588654</v>
       </c>
       <c r="E42" s="145">
-        <v>8.3145923285272954</v>
+        <f t="shared" ref="E42:E44" si="10">$E$40*(1-E31/MAX(E$30:E$34))*100</f>
+        <v>9.7139221377058966</v>
       </c>
       <c r="F42" s="145">
-        <v>17.427874319104571</v>
+        <f t="shared" ref="F42:G45" si="11">F$40*(F31/MAX(F$30:F$34))*100</f>
+        <v>18.73964980548881</v>
       </c>
       <c r="G42" s="145">
-        <v>13.942299455283655</v>
+        <f t="shared" si="11"/>
+        <v>14.991719844391028</v>
       </c>
       <c r="H42" s="145">
-        <v>10.480683403792483</v>
+        <f t="shared" ref="H42:I45" si="12">H$40*(1-H31/MAX(H$30:H$34))*100</f>
+        <v>11.269552047088665</v>
       </c>
       <c r="I42" s="145">
-        <v>2.9220779220779214</v>
+        <f t="shared" si="12"/>
+        <v>3.1420192710515216</v>
       </c>
       <c r="J42" s="145">
         <f t="shared" si="8"/>
-        <v>67.869780144619867</v>
+        <v>75.075367434314572</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D43" s="29">
-        <v>13.187890401669728</v>
+        <f t="shared" si="9"/>
+        <v>16.459999319320819</v>
       </c>
       <c r="E43" s="29">
-        <v>7.3828672078081432</v>
+        <f t="shared" si="10"/>
+        <v>9.2706614277356998</v>
       </c>
       <c r="F43" s="29">
-        <v>17.857142857142858</v>
+        <f t="shared" si="11"/>
+        <v>19.201228878648259</v>
       </c>
       <c r="G43" s="29">
-        <v>14.285714285714285</v>
+        <f t="shared" si="11"/>
+        <v>15.360983102918585</v>
       </c>
       <c r="H43" s="29">
-        <v>10.469084124872749</v>
+        <f t="shared" si="12"/>
+        <v>11.257079704164221</v>
       </c>
       <c r="I43" s="29">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J43" s="29">
         <f t="shared" si="8"/>
-        <v>63.182698877207763</v>
+        <v>71.549952432787592</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="121" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D44" s="145">
-        <v>16.520893067464186</v>
+        <f t="shared" si="9"/>
+        <v>17.349254230956664</v>
       </c>
       <c r="E44" s="145">
-        <v>9.3306317049717062</v>
+        <f t="shared" si="10"/>
+        <v>9.7903307228095375</v>
       </c>
       <c r="F44" s="145">
-        <v>17.737962361508835</v>
+        <f t="shared" si="11"/>
+        <v>19.073077808074039</v>
       </c>
       <c r="G44" s="145">
-        <v>14.190369889207068</v>
+        <f t="shared" si="11"/>
+        <v>15.258462246459212</v>
       </c>
       <c r="H44" s="145">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I44" s="145">
-        <v>2.9220779220779214</v>
+        <f t="shared" si="12"/>
+        <v>3.1420192710515216</v>
       </c>
       <c r="J44" s="145">
         <f t="shared" si="8"/>
-        <v>60.701934945229723</v>
+        <v>64.613144279350976</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D45" s="29">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E45" s="29" t="s">
-        <v>240</v>
+      <c r="E45" s="29">
+        <v>0</v>
       </c>
       <c r="F45" s="29">
-        <v>17.755206366051908</v>
+        <f t="shared" si="11"/>
+        <v>19.091619748442938</v>
       </c>
       <c r="G45" s="29">
         <v>0</v>
       </c>
       <c r="H45" s="29">
-        <v>10.583398646241539</v>
+        <f t="shared" si="12"/>
+        <v>11.379998544345714</v>
       </c>
       <c r="I45" s="29">
-        <v>9.7402597402597397</v>
+        <f t="shared" si="12"/>
+        <v>10.473397570171738</v>
       </c>
       <c r="J45" s="29">
         <f t="shared" si="8"/>
-        <v>38.078864752553187</v>
+        <v>40.945015862960389</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
@@ -22844,13 +22655,560 @@
       <c r="H46" s="62"/>
       <c r="I46" s="62"/>
     </row>
+    <row r="47" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="185" t="s">
+        <v>377</v>
+      </c>
+      <c r="D47" s="185"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="185"/>
+      <c r="H47" s="185"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="185"/>
+    </row>
+    <row r="48" spans="3:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="141" t="s">
+        <v>370</v>
+      </c>
+      <c r="D48" s="142" t="s">
+        <v>371</v>
+      </c>
+      <c r="E48" s="142" t="s">
+        <v>376</v>
+      </c>
+      <c r="F48" s="142" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" s="142" t="s">
+        <v>373</v>
+      </c>
+      <c r="H48" s="142" t="s">
+        <v>374</v>
+      </c>
+      <c r="I48" s="142" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" s="143" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="144" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="129">
+        <v>0.25</v>
+      </c>
+      <c r="E49" s="129">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F49" s="129">
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="G49" s="129">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H49" s="129">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="I49" s="129">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="J49" s="129">
+        <f>SUM(D49:I49)</f>
+        <v>0.92857142857142838</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D50" s="29">
+        <v>0.55437330005646501</v>
+      </c>
+      <c r="E50" s="29">
+        <v>0</v>
+      </c>
+      <c r="F50" s="29">
+        <v>17.758988142576868</v>
+      </c>
+      <c r="G50" s="29">
+        <v>14.207190514061494</v>
+      </c>
+      <c r="H50" s="29">
+        <v>10.51118238676645</v>
+      </c>
+      <c r="I50" s="29">
+        <v>7.7922077922077921</v>
+      </c>
+      <c r="J50" s="29">
+        <f t="shared" ref="J50:J54" si="13">SUM(D50:I50)</f>
+        <v>50.823942135669071</v>
+      </c>
+      <c r="K50">
+        <f>J41/J50</f>
+        <v>1.0752688172043006</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="121" t="s">
+        <v>380</v>
+      </c>
+      <c r="D51" s="145">
+        <v>14.782252715833941</v>
+      </c>
+      <c r="E51" s="145">
+        <v>8.3145923285272954</v>
+      </c>
+      <c r="F51" s="145">
+        <v>17.427874319104571</v>
+      </c>
+      <c r="G51" s="145">
+        <v>13.942299455283655</v>
+      </c>
+      <c r="H51" s="145">
+        <v>10.480683403792483</v>
+      </c>
+      <c r="I51" s="145">
+        <v>2.9220779220779214</v>
+      </c>
+      <c r="J51" s="145">
+        <f t="shared" si="13"/>
+        <v>67.869780144619867</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ref="K51:K54" si="14">J42/J51</f>
+        <v>1.1061678301350133</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D52" s="29">
+        <v>13.187890401669728</v>
+      </c>
+      <c r="E52" s="29">
+        <v>7.3828672078081432</v>
+      </c>
+      <c r="F52" s="29">
+        <v>17.857142857142858</v>
+      </c>
+      <c r="G52" s="29">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="H52" s="29">
+        <v>10.469084124872749</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+      <c r="J52" s="29">
+        <f t="shared" si="13"/>
+        <v>63.182698877207763</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="14"/>
+        <v>1.1324295052960802</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="121" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53" s="145">
+        <v>16.520893067464186</v>
+      </c>
+      <c r="E53" s="145">
+        <v>9.3306317049717062</v>
+      </c>
+      <c r="F53" s="145">
+        <v>17.737962361508835</v>
+      </c>
+      <c r="G53" s="145">
+        <v>14.190369889207068</v>
+      </c>
+      <c r="H53" s="145">
+        <v>0</v>
+      </c>
+      <c r="I53" s="145">
+        <v>2.9220779220779214</v>
+      </c>
+      <c r="J53" s="145">
+        <f t="shared" si="13"/>
+        <v>60.701934945229723</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="14"/>
+        <v>1.0644330256959726</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D54" s="29">
+        <v>0</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="29">
+        <v>17.755206366051908</v>
+      </c>
+      <c r="G54" s="29">
+        <v>0</v>
+      </c>
+      <c r="H54" s="29">
+        <v>10.583398646241539</v>
+      </c>
+      <c r="I54" s="29">
+        <v>9.7402597402597397</v>
+      </c>
+      <c r="J54" s="29">
+        <f t="shared" si="13"/>
+        <v>38.078864752553187</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="14"/>
+        <v>1.0752688172043003</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D60" s="29">
+        <f>$D$49*(1-D30/MAX(D$30:D$34))*100</f>
+        <v>0.55437330005646546</v>
+      </c>
+      <c r="E60" s="29">
+        <f>$E$49*(1-E30/MAX(E$30:E$33))*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D61" s="29">
+        <f>$D$49*(1-D31/MAX(D$30:D$34))*100</f>
+        <v>16.013209025587464</v>
+      </c>
+      <c r="E61" s="29">
+        <f>$E$49*(1-E31/MAX(E$30:E$33))*100</f>
+        <v>9.0339475880664857</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D62" s="29">
+        <f>$D$49*(1-D32/MAX(D$30:D$34))*100</f>
+        <v>15.307799366968379</v>
+      </c>
+      <c r="E62" s="29">
+        <f>$E$49*(1-E32/MAX(E$30:E$33))*100</f>
+        <v>8.6217151277942001</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D63" s="29">
+        <f>$D$49*(1-D33/MAX(D$30:D$34))*100</f>
+        <v>16.134806434789716</v>
+      </c>
+      <c r="E63" s="29">
+        <f t="shared" ref="E63" si="15">$E$49*(1-E33/MAX(E$30:E$33))*100</f>
+        <v>9.1050075722128696</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D64" s="29">
+        <f>$D$49*(1-D34/MAX(D$30:D$34))*100</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C47:J47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D685C4A-6611-45E2-BB7C-3CFB0014F712}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="C2:L10"/>
+  <sheetViews>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="12" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="127" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="127" t="s">
+        <v>344</v>
+      </c>
+      <c r="J3" s="127" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="127" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="71">
+        <v>1</v>
+      </c>
+      <c r="F4" s="66">
+        <v>1</v>
+      </c>
+      <c r="G4" s="66">
+        <v>1</v>
+      </c>
+      <c r="H4" s="66">
+        <v>1</v>
+      </c>
+      <c r="I4" s="66">
+        <v>1</v>
+      </c>
+      <c r="J4" s="66">
+        <v>1</v>
+      </c>
+      <c r="K4" s="67">
+        <f t="shared" ref="K4:K10" si="0">SUM(D4:J4)+1</f>
+        <v>7</v>
+      </c>
+      <c r="L4" s="68">
+        <f>K4/SUM(K4:K10)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="127" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="71">
+        <v>0</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="71">
+        <v>0</v>
+      </c>
+      <c r="G5" s="71">
+        <v>0</v>
+      </c>
+      <c r="H5" s="71">
+        <v>1</v>
+      </c>
+      <c r="I5" s="71">
+        <v>1</v>
+      </c>
+      <c r="J5" s="71">
+        <v>1</v>
+      </c>
+      <c r="K5" s="65">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L5" s="72">
+        <f>K5/SUM(K4:K10)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="127" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="69">
+        <v>0</v>
+      </c>
+      <c r="E6" s="71">
+        <v>1</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71">
+        <v>1</v>
+      </c>
+      <c r="H6" s="71">
+        <v>0</v>
+      </c>
+      <c r="I6" s="71">
+        <v>1</v>
+      </c>
+      <c r="J6" s="71">
+        <v>1</v>
+      </c>
+      <c r="K6" s="65">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L6" s="72">
+        <f>K6/SUM($K$4:$K$10)</f>
+        <v>0.17857142857142858</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="127" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="69">
+        <v>0</v>
+      </c>
+      <c r="E7" s="71">
+        <v>1</v>
+      </c>
+      <c r="F7" s="71">
+        <v>0</v>
+      </c>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71">
+        <v>0</v>
+      </c>
+      <c r="I7" s="71">
+        <v>1</v>
+      </c>
+      <c r="J7" s="71">
+        <v>1</v>
+      </c>
+      <c r="K7" s="65">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="72">
+        <f>K7/SUM($K$4:$K$10)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="69">
+        <v>0</v>
+      </c>
+      <c r="E8" s="71">
+        <v>0</v>
+      </c>
+      <c r="F8" s="71">
+        <v>1</v>
+      </c>
+      <c r="G8" s="71">
+        <v>1</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71">
+        <v>0</v>
+      </c>
+      <c r="J8" s="71">
+        <v>0</v>
+      </c>
+      <c r="K8" s="65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="72">
+        <f>K8/SUM($K$4:$K$10)</f>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="127" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="69">
+        <v>0</v>
+      </c>
+      <c r="E9" s="71">
+        <v>0</v>
+      </c>
+      <c r="F9" s="71">
+        <v>0</v>
+      </c>
+      <c r="G9" s="71">
+        <v>0</v>
+      </c>
+      <c r="H9" s="71">
+        <v>1</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71">
+        <v>1</v>
+      </c>
+      <c r="K9" s="65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="72">
+        <f>K9/SUM($K$4:$K$10)</f>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="127" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="73">
+        <v>0</v>
+      </c>
+      <c r="E10" s="74">
+        <v>0</v>
+      </c>
+      <c r="F10" s="74">
+        <v>0</v>
+      </c>
+      <c r="G10" s="74">
+        <v>0</v>
+      </c>
+      <c r="H10" s="74">
+        <v>1</v>
+      </c>
+      <c r="I10" s="74">
+        <v>0</v>
+      </c>
+      <c r="J10" s="75"/>
+      <c r="K10" s="76">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="77">
+        <f>K10/SUM($K$4:$K$10)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -22876,15 +23234,15 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K2" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L2" s="2">
         <v>0.16</v>
@@ -22892,22 +23250,22 @@
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K3" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L3" s="2">
         <v>3.66</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="176" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
+      <c r="C4" s="185" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
       <c r="K4" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L4" s="2">
         <v>0.4</v>
@@ -22915,23 +23273,23 @@
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" s="120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="120" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E5" s="120" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F5" s="120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G5" s="120" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L5" s="2">
         <v>4.5999999999999996</v>
@@ -22952,12 +23310,12 @@
         <v>2351.0971786833857</v>
       </c>
       <c r="G6" s="124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="121" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D7" s="122">
         <v>73000000</v>
@@ -22970,12 +23328,12 @@
         <v>3876.5864797408531</v>
       </c>
       <c r="G7" s="123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D8" s="17">
         <v>115000000</v>
@@ -22988,12 +23346,12 @@
         <v>5311.778290993072</v>
       </c>
       <c r="G8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D9" s="122">
         <v>67000000</v>
@@ -23006,12 +23364,12 @@
         <v>2938.5964912280701</v>
       </c>
       <c r="G9" s="123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D10" s="17">
         <v>2000000000</v>
@@ -23024,12 +23382,12 @@
         <v>21052.63157894737</v>
       </c>
       <c r="G10" s="124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="121" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D11" s="122">
         <v>37000000</v>
@@ -23042,12 +23400,12 @@
         <v>11212.121212121212</v>
       </c>
       <c r="G11" s="123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="17">
         <v>5300000</v>
@@ -23060,12 +23418,12 @@
         <v>24090.909090909092</v>
       </c>
       <c r="G12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="121" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D13" s="122">
         <v>85000000</v>
@@ -23078,7 +23436,7 @@
         <v>10365.853658536585</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -23099,7 +23457,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:AE92"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="X23" sqref="X23:X33"/>
     </sheetView>
   </sheetViews>
@@ -23129,50 +23487,50 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="M3" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C4" s="17">
         <v>3757</v>
@@ -23213,12 +23571,12 @@
         <v>0.37014532844659487</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C5" s="17">
         <v>1219</v>
@@ -23258,12 +23616,12 @@
         <v>0.34123750733279873</v>
       </c>
       <c r="O5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2">
         <v>400</v>
@@ -23303,12 +23661,12 @@
         <v>8.7934384233271795E-2</v>
       </c>
       <c r="O6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -23346,12 +23704,12 @@
         <v>7.4395391683574716E-2</v>
       </c>
       <c r="O7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C8" s="2">
         <v>200</v>
@@ -23391,12 +23749,12 @@
         <v>7.147303593116229E-2</v>
       </c>
       <c r="O8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -23436,12 +23794,12 @@
         <v>3.6121321715668599E-2</v>
       </c>
       <c r="O9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C10" s="2">
         <v>685</v>
@@ -23479,12 +23837,12 @@
         <v>1.869303065692907E-2</v>
       </c>
       <c r="O10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -23524,12 +23882,12 @@
         <v>0.16093587142352273</v>
       </c>
       <c r="O11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C12" s="2">
         <v>431</v>
@@ -23569,7 +23927,7 @@
         <v>0.11237345876679818</v>
       </c>
       <c r="O12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23623,46 +23981,46 @@
     </row>
     <row r="20" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X21" s="177" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y21" s="178"/>
-      <c r="Z21" s="178"/>
-      <c r="AA21" s="178"/>
-      <c r="AB21" s="178"/>
-      <c r="AC21" s="178"/>
-      <c r="AD21" s="178"/>
-      <c r="AE21" s="179"/>
+      <c r="X21" s="175" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y21" s="176"/>
+      <c r="Z21" s="176"/>
+      <c r="AA21" s="176"/>
+      <c r="AB21" s="176"/>
+      <c r="AC21" s="176"/>
+      <c r="AD21" s="176"/>
+      <c r="AE21" s="177"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X22" s="146" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y22" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="Y22" s="154" t="s">
+      <c r="Z22" s="155" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA22" s="156" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB22" s="156" t="s">
         <v>338</v>
       </c>
-      <c r="Z22" s="155" t="s">
+      <c r="AC22" s="156" t="s">
         <v>339</v>
       </c>
-      <c r="AA22" s="156" t="s">
+      <c r="AD22" s="157" t="s">
         <v>340</v>
       </c>
-      <c r="AB22" s="156" t="s">
+      <c r="AE22" s="147" t="s">
         <v>341</v>
-      </c>
-      <c r="AC22" s="156" t="s">
-        <v>342</v>
-      </c>
-      <c r="AD22" s="157" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE22" s="147" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X23" s="148" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Y23" s="158">
         <f t="shared" ref="Y23:Y33" si="2">SUM(Z23:AE23)</f>
@@ -23690,7 +24048,7 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X24" s="150" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Y24" s="161">
         <f t="shared" si="2"/>
@@ -23718,7 +24076,7 @@
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X25" s="148" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Y25" s="158">
         <f t="shared" si="2"/>
@@ -23745,7 +24103,7 @@
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X26" s="150" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Y26" s="161">
         <f t="shared" si="2"/>
@@ -23772,7 +24130,7 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X27" s="148" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Y27" s="158">
         <f t="shared" si="2"/>
@@ -23800,7 +24158,7 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X28" s="150" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Y28" s="161">
         <f t="shared" si="2"/>
@@ -23827,7 +24185,7 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X29" s="148" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Y29" s="158">
         <f t="shared" si="2"/>
@@ -23857,7 +24215,7 @@
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="X30" s="150" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y30" s="161">
         <f t="shared" si="2"/>
@@ -23885,10 +24243,10 @@
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="X31" s="148" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Y31" s="158">
         <f t="shared" si="2"/>
@@ -23916,43 +24274,43 @@
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="J32" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J32" s="17" t="s">
+      <c r="L32" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="N32" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="L32" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="N32" s="17" t="s">
-        <v>312</v>
-      </c>
       <c r="X32" s="150" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Y32" s="161">
         <f t="shared" si="2"/>
@@ -23980,7 +24338,7 @@
     </row>
     <row r="33" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2">
         <v>460</v>
@@ -24021,7 +24379,7 @@
         <v>0.2756065027505068</v>
       </c>
       <c r="X33" s="148" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Y33" s="158">
         <f t="shared" si="2"/>
@@ -24049,7 +24407,7 @@
     </row>
     <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2">
         <v>495</v>
@@ -24090,7 +24448,7 @@
         <v>0.33656889746635571</v>
       </c>
       <c r="X34" s="152" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Y34" s="164">
         <f t="shared" ref="Y34:AE34" si="4">SUM(Y23:Y33)/SUM($Y$23:$Y$33)</f>
@@ -24123,7 +24481,7 @@
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2">
         <v>366</v>
@@ -24166,7 +24524,7 @@
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C36" s="17">
         <v>29</v>
@@ -24210,7 +24568,7 @@
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2">
         <f>210+194</f>
@@ -24257,7 +24615,7 @@
     </row>
     <row r="38" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C38" s="17">
         <v>273</v>
@@ -24299,7 +24657,7 @@
     </row>
     <row r="39" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="107" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C39" s="115">
         <f>SUM(C33:C38)</f>
@@ -24359,17 +24717,17 @@
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -24390,7 +24748,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="C3:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
@@ -24406,12 +24764,12 @@
   <sheetData>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G4" t="str" cm="1">
         <f t="array" ref="G4:I10">'Sizing and Cost Calcs'!K16:M22</f>
@@ -24424,13 +24782,13 @@
         <v>5909.9978401806566</v>
       </c>
       <c r="O4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
@@ -24557,13 +24915,13 @@
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H11" s="59"/>
       <c r="I11" s="59">
@@ -24572,13 +24930,13 @@
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E12">
         <v>1150</v>
       </c>
       <c r="G12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I12">
         <v>1150</v>
@@ -24586,13 +24944,13 @@
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E13">
         <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I13">
         <v>70</v>
@@ -24600,20 +24958,20 @@
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E14" s="62">
         <f>((E11+1)*E12)/(E11+(E12/E13))/1150</f>
         <v>0.36842105263157898</v>
       </c>
       <c r="G14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I14" s="62">
         <f>((I11+1)*I12)/(I11+(I12/I13))/1150</f>
@@ -24622,19 +24980,19 @@
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -24642,19 +25000,19 @@
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -24662,19 +25020,19 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -24682,19 +25040,19 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E18">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I18">
         <v>14</v>
@@ -24702,20 +25060,20 @@
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E19" s="18">
         <f>E10*1.78*9.81/6</f>
         <v>172692.64686037044</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I19" s="18">
         <f>I10*1.78*1.62</f>
@@ -24724,19 +25082,19 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E20">
         <v>0.123</v>
       </c>
       <c r="G20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I20">
         <v>0.123</v>
@@ -24744,20 +25102,20 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E21" s="105">
         <f>0.3*E5</f>
         <v>1806.6847335140017</v>
       </c>
       <c r="G21" s="116" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H21" s="116" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I21" s="117">
         <f>0.31*I4</f>
@@ -24766,20 +25124,20 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E22" s="106">
         <f>0.0135*1^0.4118*E19^0.471*E9^0.3574</f>
         <v>190.7807537546243</v>
       </c>
       <c r="G22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I22" s="106">
         <f>I19/530.54</f>
@@ -24788,14 +25146,14 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E23" s="106">
         <f>0.4078*((E9*E14)^0.75)*(2^-1.0836)*(1^-0.1739)</f>
         <v>310.24158603702779</v>
       </c>
       <c r="H23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I23" s="106">
         <f>0.1*I8</f>
@@ -24804,14 +25162,14 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E24" s="106">
         <f>0.00001139*6^3.088*E5^0.806</f>
         <v>3.2058429869741194</v>
       </c>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I24" s="106">
         <f>0.00001139*12^3.088*I4^0.806</f>
@@ -24820,10 +25178,10 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I25" s="62">
         <f>0.1*I22</f>
@@ -24832,14 +25190,14 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D26" s="62">
         <f>1.83*E5</f>
         <v>11020.776874435411</v>
       </c>
       <c r="H26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I26" s="62">
         <f>(I25+I22)*0.15</f>
@@ -24848,7 +25206,7 @@
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D27">
         <f>(48/60)*D26/0.8</f>
@@ -24857,17 +25215,17 @@
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E28" s="62">
         <f>(1/175)*D27</f>
         <v>62.975867853916633</v>
       </c>
       <c r="G28" s="112" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H28" s="112">
         <v>0.27160000000000001</v>
@@ -24879,29 +25237,29 @@
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D29">
         <f>D26+(D27/1.08)</f>
         <v>21225.199906320049</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E30">
         <f>D29/52</f>
         <v>408.17692127538555</v>
       </c>
       <c r="G30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H30" s="62">
         <f>1.83*I4</f>
@@ -24910,17 +25268,17 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E31">
         <f>D29/409</f>
         <v>51.895354294181047</v>
       </c>
       <c r="G31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H31">
         <f>(48/60)*H30</f>
@@ -24929,20 +25287,20 @@
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E32" s="62">
         <f>0.033*E10+123</f>
         <v>2081.1683491022313</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I32" s="62">
         <f>(1/175)*H31/0.8</f>
@@ -24951,14 +25309,14 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E33" s="62">
         <f>E5-E21-E22-E23-E24-E28-E32-E30</f>
         <v>1159.048390522511</v>
       </c>
       <c r="G33" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H33">
         <f>H30+(H31/1.08)</f>
@@ -24967,10 +25325,10 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I34" s="62">
         <f>H33/52</f>
@@ -24979,10 +25337,10 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I35" s="62">
         <f>H33/409</f>
@@ -24991,7 +25349,7 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G36" s="112" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H36" s="112"/>
       <c r="I36" s="114">
@@ -25001,7 +25359,7 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G37" s="114" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H37" s="114"/>
       <c r="I37" s="114">
@@ -25011,7 +25369,7 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G38" s="112" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H38" s="112"/>
       <c r="I38" s="118">
@@ -25021,7 +25379,7 @@
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G39" s="112" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H39" s="112"/>
       <c r="I39" s="114">
@@ -25031,7 +25389,7 @@
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H41" s="32">
         <f>I21</f>
@@ -25044,7 +25402,7 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H42" s="32">
         <f>I28</f>
@@ -25057,7 +25415,7 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H43" s="32">
         <f>I38</f>
@@ -25070,7 +25428,7 @@
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H44" s="32">
         <f>I36</f>
@@ -25083,7 +25441,7 @@
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H45" s="32">
         <f>I37</f>
@@ -25096,7 +25454,7 @@
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H46" s="32">
         <f>I39</f>
